--- a/user_data_for_haier添加缺失值.xlsx
+++ b/user_data_for_haier添加缺失值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2000" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="1960" windowWidth="25600" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2608,11 +2608,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FZ212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="50" zoomScaleNormal="30" zoomScalePageLayoutView="30" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="S113" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="30" zoomScalePageLayoutView="30" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y120" sqref="Y120"/>
+      <selection pane="bottomRight" activeCell="C128" sqref="C128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -31036,9 +31036,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO140">
       <formula1>"好评,中评,差评"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C140">
-      <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员,PLUS会员[使用]"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O140 G3:I140">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
@@ -31050,6 +31047,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC140">
       <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动,/"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员,PLUS会员[试用]"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user_data_for_haier添加缺失值.xlsx
+++ b/user_data_for_haier添加缺失值.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1960" windowWidth="25600" windowHeight="13060"/>
+    <workbookView xWindow="0" yWindow="1420" windowWidth="25600" windowHeight="13060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="336">
   <si>
     <t>客户信息</t>
   </si>
@@ -718,10 +718,6 @@
     <t>PLUS会员[试用]</t>
   </si>
   <si>
-    <t>未安装</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>4</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -730,10 +726,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>自己安装</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -839,6 +831,24 @@
   <si>
     <t>3</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三日</t>
+  </si>
+  <si>
+    <t>三到七日</t>
+  </si>
+  <si>
+    <t>次日</t>
+  </si>
+  <si>
+    <t>大于一周</t>
+  </si>
+  <si>
+    <t>当天下午</t>
+  </si>
+  <si>
+    <t>半天内</t>
   </si>
   <si>
     <t>售后有否小礼品券赠送</t>
@@ -1010,15 +1020,9 @@
     <t>2016123  12:31:00 PM</t>
   </si>
   <si>
-    <t>20161203 09:38</t>
-  </si>
-  <si>
     <t>201712  10:14:00 PM</t>
   </si>
   <si>
-    <t xml:space="preserve">20170104 12:00 </t>
-  </si>
-  <si>
     <t>20161224  11:53:00 PM</t>
   </si>
   <si>
@@ -1037,36 +1041,21 @@
     <t>2016327  10:34:00 PM</t>
   </si>
   <si>
-    <t>2016327 14:00:00</t>
-  </si>
-  <si>
     <t>海尔（Haier）KFR-35GW15DEA22AU1套机 劲铂自清洁 1.5匹 变频挂机 智能 除甲醛 二级能效 冷暖 壁挂式空调</t>
   </si>
   <si>
     <t>20161125  1:25:00 PM</t>
   </si>
   <si>
-    <t>20161125 11:00:00</t>
-  </si>
-  <si>
     <t>201659  1:02:00 PM</t>
   </si>
   <si>
-    <t>201659 11:00:00</t>
-  </si>
-  <si>
     <t>201681  4:56:00 PM</t>
   </si>
   <si>
-    <t>201681 14:00:00</t>
-  </si>
-  <si>
     <t>2016614  12:18:00 AM</t>
   </si>
   <si>
-    <t>2016314 14:00:00</t>
-  </si>
-  <si>
     <t>2016615  1:47:00 PM</t>
   </si>
   <si>
@@ -1079,123 +1068,66 @@
     <t>2017117  6:39:00 PM</t>
   </si>
   <si>
-    <t>2017117 14:00:00</t>
-  </si>
-  <si>
     <t>2017120  7:59:00 AM</t>
   </si>
   <si>
-    <t>2017118 14:00:00</t>
-  </si>
-  <si>
     <t>20161214  9:32:00 PM</t>
   </si>
   <si>
-    <t>20161214 14:00:00</t>
-  </si>
-  <si>
     <t>2016129  10:38:00 PM</t>
   </si>
   <si>
-    <t>2016129 14:00:00</t>
-  </si>
-  <si>
     <t>2016125  12:40:00 AM</t>
   </si>
   <si>
-    <t>2016125 10:00:00</t>
-  </si>
-  <si>
     <t>20161114  10:16:00 PM</t>
   </si>
   <si>
-    <t>20161114 14:00:00</t>
-  </si>
-  <si>
     <t>2017123  3:59:00 PM</t>
   </si>
   <si>
-    <t>2017123 14:00:00</t>
-  </si>
-  <si>
     <t>20161112  6:30:00 PM</t>
   </si>
   <si>
-    <t>20161112 14:00:00</t>
-  </si>
-  <si>
     <t>20161018  5:17:00 PM</t>
   </si>
   <si>
-    <t>20161018 14:00:00</t>
-  </si>
-  <si>
     <t>20161120  12:20:00 AM</t>
   </si>
   <si>
-    <t>20161113 14:00:00</t>
-  </si>
-  <si>
     <t>2017119  3:41:00 PM</t>
   </si>
   <si>
     <t>201714  11:39:00 AM</t>
   </si>
   <si>
-    <t>20171219 10:00:00</t>
-  </si>
-  <si>
     <t>2017124  11:26:00 AM</t>
   </si>
   <si>
-    <t>2017125 10:00:00</t>
-  </si>
-  <si>
     <t>2016911  9:54:00 AM</t>
   </si>
   <si>
-    <t>2016910 14:00:00</t>
-  </si>
-  <si>
     <t>海尔(Haier)80升空气能热水器(一体壁挂式) 智能APP远程遥控电热水器 KG1580-AE3-U1</t>
   </si>
   <si>
     <t>201632  9:52:00 PM</t>
   </si>
   <si>
-    <t>201631 14:00:00</t>
-  </si>
-  <si>
     <t>20161111  9:29:00 PM</t>
   </si>
   <si>
-    <t>2016112 14:00:00</t>
-  </si>
-  <si>
     <t>20151221  8:55:00 AM</t>
   </si>
   <si>
-    <t>20151214 14:00:00</t>
-  </si>
-  <si>
     <t>2016612  7:26:00 AM</t>
   </si>
   <si>
-    <t>2016611 14:00:00</t>
-  </si>
-  <si>
     <t>2016318  8:41:00 PM</t>
   </si>
   <si>
-    <t>2016317 14:00:00</t>
-  </si>
-  <si>
     <t>2016412  7:34:00 PM</t>
   </si>
   <si>
-    <t>2016411 14:00:00</t>
-  </si>
-  <si>
     <t>2016620  11:31:00 PM</t>
   </si>
   <si>
@@ -1205,15 +1137,9 @@
     <t>2016327  2:58:00 PM</t>
   </si>
   <si>
-    <t>2016326 14:00:00</t>
-  </si>
-  <si>
     <t>201651  2:00:00 PM</t>
   </si>
   <si>
-    <t>2016430 14:00:00</t>
-  </si>
-  <si>
     <t>201681  5:24:00 PM</t>
   </si>
   <si>
@@ -1313,9 +1239,6 @@
     <t>2016122  10:52:00 AM</t>
   </si>
   <si>
-    <t>20161130 18:30:00</t>
-  </si>
-  <si>
     <t>20161128  8:41:00 AM</t>
   </si>
   <si>
@@ -1323,9 +1246,6 @@
   </si>
   <si>
     <t>201714  6:16:00 PM</t>
-  </si>
-  <si>
-    <t>2017124  14:17:00</t>
   </si>
   <si>
     <t>2017114  9:39:00 AM</t>
@@ -2608,11 +2528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FZ212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="94" zoomScaleNormal="30" zoomScalePageLayoutView="30" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B118" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="30" zoomScalePageLayoutView="30" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="F50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C128" sqref="C128"/>
+      <selection pane="bottomRight" activeCell="P53" sqref="P53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -2840,7 +2760,7 @@
         <v>29</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AB2" s="33" t="s">
         <v>30</v>
@@ -2992,7 +2912,7 @@
         <v>74</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="G3" s="12">
         <v>4</v>
@@ -3180,7 +3100,7 @@
         <v>79</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G4" s="17">
         <v>4</v>
@@ -3368,7 +3288,7 @@
         <v>74</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="G5" s="17">
         <v>4</v>
@@ -3568,7 +3488,7 @@
         <v>81</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="G6" s="17">
         <v>4</v>
@@ -3758,7 +3678,7 @@
         <v>85</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="G7" s="17">
         <v>3</v>
@@ -3946,7 +3866,7 @@
         <v>74</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G8" s="17">
         <v>3</v>
@@ -4148,7 +4068,7 @@
         <v>90</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="G9" s="17">
         <v>3</v>
@@ -4350,7 +4270,7 @@
         <v>90</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G10" s="17">
         <v>5</v>
@@ -4540,7 +4460,7 @@
         <v>74</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G11" s="17">
         <v>5</v>
@@ -4730,7 +4650,7 @@
         <v>74</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="G12" s="17">
         <v>3</v>
@@ -4918,7 +4838,7 @@
         <v>81</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G13" s="17">
         <v>4</v>
@@ -5108,7 +5028,7 @@
         <v>79</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="G14" s="17">
         <v>4</v>
@@ -5298,7 +5218,7 @@
         <v>79</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G15" s="17">
         <v>4</v>
@@ -5506,7 +5426,7 @@
         <v>79</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G16" s="17">
         <v>4</v>
@@ -5716,7 +5636,7 @@
         <v>79</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G17" s="17">
         <v>3</v>
@@ -5920,7 +5840,7 @@
         <v>74</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="G18" s="17">
         <v>5</v>
@@ -6108,7 +6028,7 @@
         <v>79</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G19" s="17">
         <v>4</v>
@@ -6298,7 +6218,7 @@
         <v>90</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G20" s="17">
         <v>4</v>
@@ -6486,7 +6406,7 @@
         <v>79</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="G21" s="17">
         <v>4</v>
@@ -6674,7 +6594,7 @@
         <v>79</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="G22" s="17">
         <v>3</v>
@@ -6874,7 +6794,7 @@
         <v>74</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="G23" s="17">
         <v>4</v>
@@ -7076,7 +6996,7 @@
         <v>79</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="G24" s="17">
         <v>4</v>
@@ -7280,7 +7200,7 @@
         <v>74</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="G25" s="17">
         <v>3</v>
@@ -7470,7 +7390,7 @@
         <v>74</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="G26" s="17">
         <v>3</v>
@@ -7660,7 +7580,7 @@
         <v>74</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G27" s="17">
         <v>3</v>
@@ -7850,7 +7770,7 @@
         <v>74</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G28" s="17">
         <v>2</v>
@@ -8040,7 +7960,7 @@
         <v>79</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="G29" s="17">
         <v>4</v>
@@ -8232,7 +8152,7 @@
         <v>74</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="G30" s="17">
         <v>3</v>
@@ -8420,7 +8340,7 @@
         <v>79</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="G31" s="21">
         <v>5</v>
@@ -8610,7 +8530,7 @@
         <v>79</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G32" s="21">
         <v>4</v>
@@ -8800,7 +8720,7 @@
         <v>74</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="G33" s="21">
         <v>3</v>
@@ -8990,7 +8910,7 @@
         <v>74</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G34" s="21">
         <v>4</v>
@@ -9192,7 +9112,7 @@
         <v>79</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G35" s="21">
         <v>3</v>
@@ -9384,7 +9304,7 @@
         <v>79</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G36" s="21">
         <v>3</v>
@@ -9590,7 +9510,7 @@
         <v>79</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G37" s="21">
         <v>4</v>
@@ -9782,7 +9702,7 @@
         <v>74</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="G38" s="21">
         <v>3</v>
@@ -9970,7 +9890,7 @@
         <v>74</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="G39" s="21">
         <v>3</v>
@@ -10160,7 +10080,7 @@
         <v>79</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="G40" s="21">
         <v>3</v>
@@ -10352,7 +10272,7 @@
         <v>74</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G41" s="21">
         <v>4</v>
@@ -10542,7 +10462,7 @@
         <v>74</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="G42" s="21">
         <v>2</v>
@@ -10732,7 +10652,7 @@
         <v>74</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="G43" s="21">
         <v>3</v>
@@ -10940,7 +10860,7 @@
         <v>74</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G44" s="21">
         <v>4</v>
@@ -11128,7 +11048,7 @@
         <v>81</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G45" s="21">
         <v>4</v>
@@ -11332,7 +11252,7 @@
         <v>74</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G46" s="21">
         <v>4</v>
@@ -11536,7 +11456,7 @@
         <v>74</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="G47" s="21">
         <v>3</v>
@@ -11742,7 +11662,7 @@
         <v>79</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G48" s="21">
         <v>4</v>
@@ -11942,7 +11862,7 @@
         <v>74</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="G49" s="21">
         <v>2</v>
@@ -12132,7 +12052,7 @@
         <v>74</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="G50" s="21">
         <v>3</v>
@@ -12316,7 +12236,7 @@
         <v>79</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="G51" s="21">
         <v>5</v>
@@ -12502,7 +12422,7 @@
         <v>90</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G52" s="21">
         <v>5</v>
@@ -12710,7 +12630,7 @@
         <v>79</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G53" s="21">
         <v>4</v>
@@ -12898,7 +12818,7 @@
         <v>74</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="G54" s="25">
         <v>3</v>
@@ -13090,7 +13010,7 @@
         <v>79</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G55" s="25">
         <v>4</v>
@@ -13119,9 +13039,7 @@
       <c r="O55" s="25">
         <v>2</v>
       </c>
-      <c r="P55" s="24" t="s">
-        <v>252</v>
-      </c>
+      <c r="P55" s="24"/>
       <c r="Q55" s="25">
         <v>3</v>
       </c>
@@ -13280,7 +13198,7 @@
         <v>81</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="G56" s="25">
         <v>3</v>
@@ -13309,9 +13227,7 @@
       <c r="O56" s="25">
         <v>3</v>
       </c>
-      <c r="P56" s="24" t="s">
-        <v>254</v>
-      </c>
+      <c r="P56" s="24"/>
       <c r="Q56" s="25">
         <v>3</v>
       </c>
@@ -13484,7 +13400,7 @@
         <v>74</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="G57" s="25">
         <v>4</v>
@@ -13674,7 +13590,7 @@
         <v>74</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="G58" s="25">
         <v>3</v>
@@ -13882,7 +13798,7 @@
         <v>79</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G59" s="25">
         <v>4</v>
@@ -14078,7 +13994,7 @@
         <v>74</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G60" s="25">
         <v>2</v>
@@ -14268,7 +14184,7 @@
         <v>74</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G61" s="25">
         <v>3</v>
@@ -14297,9 +14213,7 @@
       <c r="O61" s="25">
         <v>1</v>
       </c>
-      <c r="P61" s="24" t="s">
-        <v>254</v>
-      </c>
+      <c r="P61" s="24"/>
       <c r="Q61" s="25">
         <v>3</v>
       </c>
@@ -14468,7 +14382,7 @@
         <v>74</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G62" s="25">
         <v>4</v>
@@ -14498,7 +14412,7 @@
         <v>2</v>
       </c>
       <c r="P62" s="24" t="s">
-        <v>261</v>
+        <v>197</v>
       </c>
       <c r="Q62" s="25">
         <v>1</v>
@@ -14565,7 +14479,7 @@
         <v>1</v>
       </c>
       <c r="AO62" s="52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP62" s="25">
         <v>0</v>
@@ -14668,7 +14582,7 @@
         <v>79</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G63" s="25">
         <v>3</v>
@@ -14697,9 +14611,7 @@
       <c r="O63" s="25">
         <v>3</v>
       </c>
-      <c r="P63" s="24" t="s">
-        <v>264</v>
-      </c>
+      <c r="P63" s="24"/>
       <c r="Q63" s="25">
         <v>3</v>
       </c>
@@ -14755,7 +14667,7 @@
       <c r="AM63" s="25"/>
       <c r="AN63" s="25"/>
       <c r="AO63" s="52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP63" s="25">
         <v>0</v>
@@ -14887,9 +14799,7 @@
       <c r="O64" s="25">
         <v>3</v>
       </c>
-      <c r="P64" s="24" t="s">
-        <v>266</v>
-      </c>
+      <c r="P64" s="24"/>
       <c r="Q64" s="25">
         <v>3</v>
       </c>
@@ -14945,7 +14855,7 @@
       <c r="AM64" s="25"/>
       <c r="AN64" s="25"/>
       <c r="AO64" s="52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP64" s="25">
         <v>0</v>
@@ -15048,7 +14958,7 @@
         <v>90</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G65" s="25">
         <v>2</v>
@@ -15078,7 +14988,7 @@
         <v>3</v>
       </c>
       <c r="P65" s="24" t="s">
-        <v>268</v>
+        <v>198</v>
       </c>
       <c r="Q65" s="25">
         <v>3</v>
@@ -15147,7 +15057,7 @@
         <v>0</v>
       </c>
       <c r="AO65" s="52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP65" s="25">
         <v>0</v>
@@ -15254,7 +15164,7 @@
         <v>74</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G66" s="25">
         <v>4</v>
@@ -15283,9 +15193,7 @@
       <c r="O66" s="25">
         <v>3</v>
       </c>
-      <c r="P66" s="24" t="s">
-        <v>270</v>
-      </c>
+      <c r="P66" s="24"/>
       <c r="Q66" s="25">
         <v>3</v>
       </c>
@@ -15351,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP66" s="25">
         <v>0</v>
@@ -15458,7 +15366,7 @@
         <v>90</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G67" s="25">
         <v>3</v>
@@ -15539,7 +15447,7 @@
         <v>0</v>
       </c>
       <c r="AO67" s="52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP67" s="25">
         <v>0</v>
@@ -15644,7 +15552,7 @@
         <v>79</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G68" s="25">
         <v>4</v>
@@ -15729,7 +15637,7 @@
       <c r="AM68" s="25"/>
       <c r="AN68" s="25"/>
       <c r="AO68" s="52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP68" s="25">
         <v>0</v>
@@ -15830,7 +15738,7 @@
         <v>90</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G69" s="25">
         <v>3</v>
@@ -15929,7 +15837,7 @@
         <v>1</v>
       </c>
       <c r="AO69" s="52" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AP69" s="25">
         <v>0</v>
@@ -16036,7 +15944,7 @@
         <v>74</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G70" s="25">
         <v>3</v>
@@ -16066,7 +15974,7 @@
         <v>3</v>
       </c>
       <c r="P70" s="24" t="s">
-        <v>275</v>
+        <v>201</v>
       </c>
       <c r="Q70" s="25">
         <v>4</v>
@@ -16224,7 +16132,7 @@
         <v>74</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G71" s="25">
         <v>3</v>
@@ -16253,9 +16161,7 @@
       <c r="O71" s="25">
         <v>3</v>
       </c>
-      <c r="P71" s="24" t="s">
-        <v>277</v>
-      </c>
+      <c r="P71" s="24"/>
       <c r="Q71" s="25">
         <v>3</v>
       </c>
@@ -16430,7 +16336,7 @@
         <v>74</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="G72" s="25">
         <v>4</v>
@@ -16460,7 +16366,7 @@
         <v>3</v>
       </c>
       <c r="P72" s="24" t="s">
-        <v>279</v>
+        <v>75</v>
       </c>
       <c r="Q72" s="25">
         <v>5</v>
@@ -16620,7 +16526,7 @@
         <v>74</v>
       </c>
       <c r="F73" s="26" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G73" s="25">
         <v>4</v>
@@ -16649,9 +16555,7 @@
       <c r="O73" s="25">
         <v>3</v>
       </c>
-      <c r="P73" s="24" t="s">
-        <v>281</v>
-      </c>
+      <c r="P73" s="24"/>
       <c r="Q73" s="25">
         <v>3</v>
       </c>
@@ -16810,7 +16714,7 @@
         <v>79</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G74" s="25">
         <v>4</v>
@@ -16839,9 +16743,7 @@
       <c r="O74" s="25">
         <v>3</v>
       </c>
-      <c r="P74" s="24" t="s">
-        <v>283</v>
-      </c>
+      <c r="P74" s="24"/>
       <c r="Q74" s="25">
         <v>3</v>
       </c>
@@ -17000,7 +16902,7 @@
         <v>81</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="G75" s="25">
         <v>3</v>
@@ -17029,9 +16931,7 @@
       <c r="O75" s="25">
         <v>3</v>
       </c>
-      <c r="P75" s="24" t="s">
-        <v>285</v>
-      </c>
+      <c r="P75" s="24"/>
       <c r="Q75" s="25">
         <v>3</v>
       </c>
@@ -17188,7 +17088,7 @@
         <v>79</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G76" s="25">
         <v>3</v>
@@ -17218,7 +17118,7 @@
         <v>4</v>
       </c>
       <c r="P76" s="24" t="s">
-        <v>287</v>
+        <v>196</v>
       </c>
       <c r="Q76" s="25">
         <v>2</v>
@@ -17380,7 +17280,7 @@
         <v>74</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="G77" s="25">
         <v>3</v>
@@ -17409,9 +17309,7 @@
       <c r="O77" s="25">
         <v>3</v>
       </c>
-      <c r="P77" s="24" t="s">
-        <v>289</v>
-      </c>
+      <c r="P77" s="24"/>
       <c r="Q77" s="25">
         <v>3</v>
       </c>
@@ -17572,7 +17470,7 @@
         <v>90</v>
       </c>
       <c r="F78" s="26" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="G78" s="25">
         <v>3</v>
@@ -17602,7 +17500,7 @@
         <v>3</v>
       </c>
       <c r="P78" s="24" t="s">
-        <v>291</v>
+        <v>201</v>
       </c>
       <c r="Q78" s="25">
         <v>4</v>
@@ -17764,7 +17662,7 @@
         <v>79</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
       <c r="G79" s="25">
         <v>3</v>
@@ -17793,9 +17691,7 @@
       <c r="O79" s="25">
         <v>3</v>
       </c>
-      <c r="P79" s="24" t="s">
-        <v>293</v>
-      </c>
+      <c r="P79" s="24"/>
       <c r="Q79" s="25">
         <v>3</v>
       </c>
@@ -17954,7 +17850,7 @@
         <v>74</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="G80" s="25">
         <v>4</v>
@@ -17983,9 +17879,7 @@
       <c r="O80" s="25">
         <v>3</v>
       </c>
-      <c r="P80" s="24" t="s">
-        <v>275</v>
-      </c>
+      <c r="P80" s="24"/>
       <c r="Q80" s="25">
         <v>3</v>
       </c>
@@ -18156,7 +18050,7 @@
         <v>74</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="G81" s="25">
         <v>3</v>
@@ -18186,7 +18080,7 @@
         <v>4</v>
       </c>
       <c r="P81" s="24" t="s">
-        <v>296</v>
+        <v>198</v>
       </c>
       <c r="Q81" s="25">
         <v>3</v>
@@ -18364,7 +18258,7 @@
         <v>79</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="G82" s="25">
         <v>2</v>
@@ -18393,9 +18287,7 @@
       <c r="O82" s="25">
         <v>3</v>
       </c>
-      <c r="P82" s="24" t="s">
-        <v>298</v>
-      </c>
+      <c r="P82" s="24"/>
       <c r="Q82" s="25">
         <v>3</v>
       </c>
@@ -18570,7 +18462,7 @@
         <v>90</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="G83" s="25">
         <v>3</v>
@@ -18600,7 +18492,7 @@
         <v>3</v>
       </c>
       <c r="P83" s="24" t="s">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="Q83" s="25">
         <v>4</v>
@@ -18657,7 +18549,7 @@
       <c r="AM83" s="24"/>
       <c r="AN83" s="24"/>
       <c r="AO83" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP83" s="25">
         <v>0</v>
@@ -18760,7 +18652,7 @@
         <v>85</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="G84" s="25">
         <v>3</v>
@@ -18789,9 +18681,7 @@
       <c r="O84" s="25">
         <v>3</v>
       </c>
-      <c r="P84" s="24" t="s">
-        <v>303</v>
-      </c>
+      <c r="P84" s="24"/>
       <c r="Q84" s="25">
         <v>3</v>
       </c>
@@ -18847,7 +18737,7 @@
       <c r="AM84" s="24"/>
       <c r="AN84" s="24"/>
       <c r="AO84" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP84" s="25">
         <v>0</v>
@@ -19059,7 +18949,7 @@
         <v>74</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="G85" s="25">
         <v>4</v>
@@ -19089,7 +18979,7 @@
         <v>3</v>
       </c>
       <c r="P85" s="24" t="s">
-        <v>305</v>
+        <v>197</v>
       </c>
       <c r="Q85" s="25">
         <v>2</v>
@@ -19156,7 +19046,7 @@
         <v>117</v>
       </c>
       <c r="AO85" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP85" s="25">
         <v>0</v>
@@ -19368,7 +19258,7 @@
         <v>79</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="G86" s="25">
         <v>3</v>
@@ -19397,9 +19287,7 @@
       <c r="O86" s="25">
         <v>3</v>
       </c>
-      <c r="P86" s="24" t="s">
-        <v>307</v>
-      </c>
+      <c r="P86" s="24"/>
       <c r="Q86" s="25">
         <v>3</v>
       </c>
@@ -19465,13 +19353,13 @@
         <v>117</v>
       </c>
       <c r="AO86" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP86" s="25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ86" s="25">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AR86" s="25">
         <v>0</v>
@@ -19681,7 +19569,7 @@
         <v>74</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="G87" s="25">
         <v>3</v>
@@ -19711,7 +19599,7 @@
         <v>4</v>
       </c>
       <c r="P87" s="24" t="s">
-        <v>309</v>
+        <v>200</v>
       </c>
       <c r="Q87" s="25">
         <v>3</v>
@@ -19778,7 +19666,7 @@
         <v>117</v>
       </c>
       <c r="AO87" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP87" s="25">
         <v>0</v>
@@ -19992,7 +19880,7 @@
         <v>74</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>310</v>
+        <v>290</v>
       </c>
       <c r="G88" s="25">
         <v>4</v>
@@ -20022,7 +19910,7 @@
         <v>3</v>
       </c>
       <c r="P88" s="24" t="s">
-        <v>311</v>
+        <v>75</v>
       </c>
       <c r="Q88" s="25">
         <v>3</v>
@@ -20079,7 +19967,7 @@
       <c r="AM88" s="24"/>
       <c r="AN88" s="24"/>
       <c r="AO88" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP88" s="25">
         <v>0</v>
@@ -20291,7 +20179,7 @@
         <v>74</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>312</v>
+        <v>291</v>
       </c>
       <c r="G89" s="25">
         <v>3</v>
@@ -20321,10 +20209,10 @@
         <v>3</v>
       </c>
       <c r="P89" s="24" t="s">
-        <v>313</v>
+        <v>199</v>
       </c>
       <c r="Q89" s="25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R89" s="25">
         <v>2</v>
@@ -20388,7 +20276,7 @@
         <v>117</v>
       </c>
       <c r="AO89" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP89" s="25">
         <v>0</v>
@@ -20602,7 +20490,7 @@
         <v>81</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>314</v>
+        <v>292</v>
       </c>
       <c r="G90" s="25">
         <v>4</v>
@@ -20687,7 +20575,7 @@
       <c r="AM90" s="24"/>
       <c r="AN90" s="24"/>
       <c r="AO90" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP90" s="25">
         <v>0</v>
@@ -20901,7 +20789,7 @@
         <v>79</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="G91" s="25">
         <v>3</v>
@@ -20976,7 +20864,7 @@
       <c r="AM91" s="24"/>
       <c r="AN91" s="24"/>
       <c r="AO91" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP91" s="25">
         <v>0</v>
@@ -21190,7 +21078,7 @@
         <v>90</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>316</v>
+        <v>294</v>
       </c>
       <c r="G92" s="25">
         <v>4</v>
@@ -21220,7 +21108,7 @@
         <v>3</v>
       </c>
       <c r="P92" s="24" t="s">
-        <v>317</v>
+        <v>198</v>
       </c>
       <c r="Q92" s="25">
         <v>3</v>
@@ -21277,7 +21165,7 @@
       <c r="AM92" s="24"/>
       <c r="AN92" s="24"/>
       <c r="AO92" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP92" s="25">
         <v>0</v>
@@ -21491,7 +21379,7 @@
         <v>74</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="G93" s="25">
         <v>3</v>
@@ -21520,9 +21408,7 @@
       <c r="O93" s="25">
         <v>3</v>
       </c>
-      <c r="P93" s="24" t="s">
-        <v>319</v>
-      </c>
+      <c r="P93" s="24"/>
       <c r="Q93" s="25">
         <v>3</v>
       </c>
@@ -21578,7 +21464,7 @@
       <c r="AM93" s="24"/>
       <c r="AN93" s="24"/>
       <c r="AO93" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP93" s="25">
         <v>0</v>
@@ -21792,7 +21678,7 @@
         <v>74</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>320</v>
+        <v>296</v>
       </c>
       <c r="G94" s="25">
         <v>4</v>
@@ -21877,7 +21763,7 @@
         <v>117</v>
       </c>
       <c r="AO94" s="52" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="AP94" s="25">
         <v>0</v>
@@ -22089,7 +21975,7 @@
         <v>74</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>321</v>
+        <v>297</v>
       </c>
       <c r="G95" s="25">
         <v>2</v>
@@ -22174,7 +22060,7 @@
       <c r="AM95" s="24"/>
       <c r="AN95" s="24"/>
       <c r="AO95" s="52" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AP95" s="25">
         <v>0</v>
@@ -22388,7 +22274,7 @@
         <v>74</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>323</v>
+        <v>299</v>
       </c>
       <c r="G96" s="25">
         <v>4</v>
@@ -22489,7 +22375,7 @@
         <v>102</v>
       </c>
       <c r="AO96" s="52" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AP96" s="25">
         <v>0</v>
@@ -22703,7 +22589,7 @@
         <v>90</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>324</v>
+        <v>300</v>
       </c>
       <c r="G97" s="25">
         <v>2</v>
@@ -22788,7 +22674,7 @@
       <c r="AM97" s="24"/>
       <c r="AN97" s="24"/>
       <c r="AO97" s="52" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AP97" s="25">
         <v>0</v>
@@ -23002,7 +22888,7 @@
         <v>74</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>325</v>
+        <v>301</v>
       </c>
       <c r="G98" s="25">
         <v>3</v>
@@ -23087,7 +22973,7 @@
       <c r="AM98" s="24"/>
       <c r="AN98" s="24"/>
       <c r="AO98" s="52" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AP98" s="25">
         <v>0</v>
@@ -23299,7 +23185,7 @@
         <v>79</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="G99" s="25">
         <v>3</v>
@@ -23384,7 +23270,7 @@
       <c r="AM99" s="24"/>
       <c r="AN99" s="24"/>
       <c r="AO99" s="52" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AP99" s="25">
         <v>0</v>
@@ -23598,7 +23484,7 @@
         <v>79</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>327</v>
+        <v>303</v>
       </c>
       <c r="G100" s="25">
         <v>4</v>
@@ -23683,7 +23569,7 @@
       <c r="AM100" s="24"/>
       <c r="AN100" s="24"/>
       <c r="AO100" s="52" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AP100" s="25">
         <v>0</v>
@@ -23895,7 +23781,7 @@
         <v>90</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>328</v>
+        <v>304</v>
       </c>
       <c r="G101" s="25">
         <v>3</v>
@@ -23924,7 +23810,9 @@
       <c r="O101" s="25">
         <v>3</v>
       </c>
-      <c r="P101" s="24"/>
+      <c r="P101" s="24" t="s">
+        <v>196</v>
+      </c>
       <c r="Q101" s="25">
         <v>3</v>
       </c>
@@ -23990,7 +23878,7 @@
         <v>117</v>
       </c>
       <c r="AO101" s="52" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AP101" s="25">
         <v>0</v>
@@ -24204,7 +24092,7 @@
         <v>79</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>329</v>
+        <v>305</v>
       </c>
       <c r="G102" s="25">
         <v>3</v>
@@ -24233,7 +24121,9 @@
       <c r="O102" s="25">
         <v>3</v>
       </c>
-      <c r="P102" s="24"/>
+      <c r="P102" s="24" t="s">
+        <v>197</v>
+      </c>
       <c r="Q102" s="25">
         <v>2</v>
       </c>
@@ -24289,7 +24179,7 @@
       <c r="AM102" s="24"/>
       <c r="AN102" s="24"/>
       <c r="AO102" s="52" t="s">
-        <v>322</v>
+        <v>298</v>
       </c>
       <c r="AP102" s="25">
         <v>0</v>
@@ -24394,7 +24284,7 @@
         <v>90</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>330</v>
+        <v>306</v>
       </c>
       <c r="G103" s="25">
         <v>5</v>
@@ -24584,7 +24474,7 @@
         <v>74</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>331</v>
+        <v>307</v>
       </c>
       <c r="G104" s="25">
         <v>3</v>
@@ -24772,7 +24662,7 @@
         <v>74</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>332</v>
+        <v>308</v>
       </c>
       <c r="G105" s="25">
         <v>3</v>
@@ -24962,7 +24852,7 @@
         <v>74</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>333</v>
+        <v>309</v>
       </c>
       <c r="G106" s="25">
         <v>3</v>
@@ -25154,7 +25044,7 @@
         <v>79</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>334</v>
+        <v>310</v>
       </c>
       <c r="G107" s="25">
         <v>3</v>
@@ -25342,7 +25232,7 @@
         <v>74</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="G108" s="25">
         <v>3</v>
@@ -25530,7 +25420,7 @@
         <v>74</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>336</v>
+        <v>312</v>
       </c>
       <c r="G109" s="25">
         <v>3</v>
@@ -25718,7 +25608,7 @@
         <v>74</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>337</v>
+        <v>313</v>
       </c>
       <c r="G110" s="25">
         <v>3</v>
@@ -25908,7 +25798,7 @@
         <v>74</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>338</v>
+        <v>314</v>
       </c>
       <c r="G111" s="25">
         <v>3</v>
@@ -26096,7 +25986,7 @@
         <v>79</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="G112" s="25">
         <v>3</v>
@@ -26286,7 +26176,7 @@
         <v>90</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>340</v>
+        <v>316</v>
       </c>
       <c r="G113" s="25">
         <v>3</v>
@@ -26298,7 +26188,7 @@
         <v>3</v>
       </c>
       <c r="J113" s="25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113" s="25">
         <v>1</v>
@@ -26316,7 +26206,7 @@
         <v>3</v>
       </c>
       <c r="P113" s="24" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="Q113" s="25"/>
       <c r="R113" s="25"/>
@@ -26346,7 +26236,7 @@
         <v>127</v>
       </c>
       <c r="AD113" s="24" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AE113" s="25">
         <v>0</v>
@@ -26361,22 +26251,22 @@
         <v>1</v>
       </c>
       <c r="AK113" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL113" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="AL113" s="24" t="s">
-        <v>176</v>
-      </c>
       <c r="AM113" s="24" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="AN113" s="24" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="AO113" s="52" t="s">
         <v>164</v>
       </c>
       <c r="AP113" s="25">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AQ113" s="72">
         <v>300</v>
@@ -26480,7 +26370,7 @@
         <v>74</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>341</v>
+        <v>317</v>
       </c>
       <c r="G114" s="25">
         <v>3</v>
@@ -26510,7 +26400,7 @@
         <v>3</v>
       </c>
       <c r="P114" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q114" s="25">
         <v>3</v>
@@ -26552,7 +26442,7 @@
         <v>86</v>
       </c>
       <c r="AD114" s="24" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="AE114" s="25">
         <v>0</v>
@@ -26568,13 +26458,13 @@
       </c>
       <c r="AK114" s="24"/>
       <c r="AL114" s="24" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="AM114" s="24" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="AN114" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AO114" s="52" t="s">
         <v>164</v>
@@ -26682,7 +26572,7 @@
         <v>90</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>342</v>
+        <v>318</v>
       </c>
       <c r="G115" s="25">
         <v>4</v>
@@ -26712,7 +26602,7 @@
         <v>3</v>
       </c>
       <c r="P115" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q115" s="25">
         <v>3</v>
@@ -26870,7 +26760,7 @@
         <v>79</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="G116" s="25">
         <v>3</v>
@@ -26900,7 +26790,7 @@
         <v>2</v>
       </c>
       <c r="P116" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q116" s="25">
         <v>3</v>
@@ -26942,7 +26832,7 @@
         <v>86</v>
       </c>
       <c r="AD116" s="24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="AE116" s="25">
         <v>0</v>
@@ -26958,13 +26848,13 @@
       </c>
       <c r="AK116" s="24"/>
       <c r="AL116" s="24" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AM116" s="24" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="AN116" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AO116" s="52" t="s">
         <v>164</v>
@@ -27070,7 +26960,7 @@
         <v>74</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="G117" s="25">
         <v>3</v>
@@ -27100,7 +26990,7 @@
         <v>4</v>
       </c>
       <c r="P117" s="24" t="s">
-        <v>170</v>
+        <v>121</v>
       </c>
       <c r="Q117" s="25"/>
       <c r="R117" s="25"/>
@@ -27246,7 +27136,7 @@
         <v>74</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>345</v>
+        <v>321</v>
       </c>
       <c r="G118" s="25">
         <v>3</v>
@@ -27276,7 +27166,7 @@
         <v>2</v>
       </c>
       <c r="P118" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q118" s="25">
         <v>3</v>
@@ -27436,7 +27326,7 @@
         <v>74</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
       <c r="G119" s="25">
         <v>4</v>
@@ -27466,7 +27356,7 @@
         <v>4</v>
       </c>
       <c r="P119" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q119" s="25">
         <v>3</v>
@@ -27626,7 +27516,7 @@
         <v>90</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="G120" s="25">
         <v>3</v>
@@ -27656,7 +27546,7 @@
         <v>5</v>
       </c>
       <c r="P120" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q120" s="25">
         <v>3</v>
@@ -27814,7 +27704,7 @@
         <v>74</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="G121" s="25">
         <v>4</v>
@@ -27844,7 +27734,7 @@
         <v>4</v>
       </c>
       <c r="P121" s="24" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q121" s="25">
         <v>3</v>
@@ -28004,7 +27894,7 @@
         <v>90</v>
       </c>
       <c r="F122" s="26" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="G122" s="25">
         <v>1</v>
@@ -28034,7 +27924,7 @@
         <v>3</v>
       </c>
       <c r="P122" s="24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="Q122" s="25">
         <v>3</v>
@@ -28076,7 +27966,7 @@
         <v>86</v>
       </c>
       <c r="AD122" s="24" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AE122" s="25">
         <v>0</v>
@@ -28092,13 +27982,13 @@
       </c>
       <c r="AK122" s="24"/>
       <c r="AL122" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AM122" s="24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AN122" s="24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="AO122" s="52" t="s">
         <v>164</v>
@@ -28206,7 +28096,7 @@
         <v>79</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="G123" s="25">
         <v>4</v>
@@ -28394,7 +28284,7 @@
         <v>90</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="G124" s="25">
         <v>3</v>
@@ -28586,7 +28476,7 @@
         <v>74</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="G125" s="25">
         <v>3</v>
@@ -28616,7 +28506,7 @@
         <v>3</v>
       </c>
       <c r="P125" s="24" t="s">
-        <v>353</v>
+        <v>196</v>
       </c>
       <c r="Q125" s="25">
         <v>2</v>
@@ -28658,7 +28548,7 @@
         <v>137</v>
       </c>
       <c r="AD125" s="24" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="AE125" s="25">
         <v>0</v>
@@ -28674,13 +28564,13 @@
       </c>
       <c r="AK125" s="24"/>
       <c r="AL125" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="AM125" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="AN125" s="24" t="s">
         <v>189</v>
-      </c>
-      <c r="AM125" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="AN125" s="24" t="s">
-        <v>191</v>
       </c>
       <c r="AO125" s="52" t="s">
         <v>164</v>
@@ -28788,7 +28678,7 @@
         <v>79</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>354</v>
+        <v>329</v>
       </c>
       <c r="G126" s="25">
         <v>3</v>
@@ -28860,7 +28750,7 @@
         <v>86</v>
       </c>
       <c r="AD126" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AE126" s="25">
         <v>0</v>
@@ -28871,20 +28761,20 @@
         <v>1</v>
       </c>
       <c r="AI126" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AJ126" s="25">
         <v>0</v>
       </c>
       <c r="AK126" s="24"/>
       <c r="AL126" s="24" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="AM126" s="24" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="AN126" s="24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="AO126" s="52" t="s">
         <v>164</v>
@@ -28990,7 +28880,7 @@
         <v>79</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>355</v>
+        <v>330</v>
       </c>
       <c r="G127" s="25">
         <v>3</v>
@@ -29059,10 +28949,10 @@
         <v>1</v>
       </c>
       <c r="AC127" s="24" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="AD127" s="24" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AE127" s="25">
         <v>0</v>
@@ -29073,22 +28963,22 @@
         <v>1</v>
       </c>
       <c r="AI127" s="24" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AJ127" s="25">
         <v>1</v>
       </c>
       <c r="AK127" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AL127" s="24" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="AM127" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AN127" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AO127" s="52" t="s">
         <v>164</v>
@@ -29196,7 +29086,7 @@
         <v>79</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>356</v>
+        <v>331</v>
       </c>
       <c r="G128" s="25">
         <v>4</v>
@@ -29226,7 +29116,7 @@
         <v>3</v>
       </c>
       <c r="P128" s="24" t="s">
-        <v>357</v>
+        <v>160</v>
       </c>
       <c r="Q128" s="25">
         <v>3</v>
@@ -29268,7 +29158,7 @@
         <v>137</v>
       </c>
       <c r="AD128" s="24" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="AE128" s="25">
         <v>0</v>
@@ -29284,13 +29174,13 @@
       </c>
       <c r="AK128" s="24"/>
       <c r="AL128" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AM128" s="24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="AN128" s="24" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="AO128" s="52" t="s">
         <v>164</v>
@@ -29398,7 +29288,7 @@
         <v>74</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>358</v>
+        <v>332</v>
       </c>
       <c r="G129" s="25">
         <v>5</v>
@@ -29590,7 +29480,7 @@
         <v>90</v>
       </c>
       <c r="F130" s="26" t="s">
-        <v>359</v>
+        <v>333</v>
       </c>
       <c r="G130" s="25">
         <v>4</v>
@@ -29662,7 +29552,7 @@
         <v>126</v>
       </c>
       <c r="AD130" s="24" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="AE130" s="25">
         <v>0</v>
@@ -29678,13 +29568,13 @@
       </c>
       <c r="AK130" s="24"/>
       <c r="AL130" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="AM130" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="AN130" s="24" t="s">
         <v>193</v>
-      </c>
-      <c r="AM130" s="24" t="s">
-        <v>184</v>
-      </c>
-      <c r="AN130" s="24" t="s">
-        <v>195</v>
       </c>
       <c r="AO130" s="52" t="s">
         <v>164</v>
@@ -29790,7 +29680,7 @@
         <v>74</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>360</v>
+        <v>334</v>
       </c>
       <c r="G131" s="25">
         <v>3</v>
@@ -29881,7 +29771,7 @@
         <v>1</v>
       </c>
       <c r="AQ131" s="72">
-        <v>-200</v>
+        <v>200</v>
       </c>
       <c r="AR131" s="25">
         <v>0</v>
@@ -29980,7 +29870,7 @@
         <v>74</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>361</v>
+        <v>335</v>
       </c>
       <c r="G132" s="25">
         <v>4</v>
@@ -31023,7 +30913,7 @@
     <mergeCell ref="Y1:AN1"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
-  <dataValidations count="9">
+  <dataValidations count="10">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W94:X94 AA78:AA82 V78:Z80 Y81:Z82 W90:X91 V3:AA77 V81:X89 Y83:AB94 V92:X93 V95:AA140">
       <formula1>"0,1,/"</formula1>
     </dataValidation>
@@ -31050,6 +30940,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>"钻石会员,金牌会员,银牌会员,铜牌会员,PLUS会员,PLUS会员[试用]"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1:P1048576">
+      <formula1>"配送员安装,半天内,当天下午,次日,第三日,三到七日,大于一周,/,无安装服务"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/user_data_for_haier添加缺失值.xlsx
+++ b/user_data_for_haier添加缺失值.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="379">
   <si>
     <t>客户信息</t>
   </si>
@@ -880,10 +880,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>1</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -899,6 +895,58 @@
     <rPh sb="0" eb="1">
       <t>xu q</t>
     </rPh>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1339,6 +1387,36 @@
   </si>
   <si>
     <t>20161112  6:50:00 PM</t>
+  </si>
+  <si>
+    <t>20161117  12:03:00 PM</t>
+  </si>
+  <si>
+    <t>20161122  8:41:00 PM</t>
+  </si>
+  <si>
+    <t>20161110  6:19:00 PM</t>
+  </si>
+  <si>
+    <t>2016115  3:58:00 PM</t>
+  </si>
+  <si>
+    <t>2016114  12:10:00 AM</t>
+  </si>
+  <si>
+    <t>20161124  10:10:00 PM</t>
+  </si>
+  <si>
+    <t>2016106  6:52:00 PM</t>
+  </si>
+  <si>
+    <t>20161215  6:58:00 PM</t>
+  </si>
+  <si>
+    <t>2016121  7:55:00 PM</t>
+  </si>
+  <si>
+    <t>2016125  11:41:00 PM</t>
   </si>
 </sst>
 </file>
@@ -2609,11 +2687,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:FZ212"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="141" zoomScaleNormal="90" zoomScaleSheetLayoutView="70" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="BA31" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="U143" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="BJ35" sqref="BJ35"/>
+      <selection pane="bottomRight" activeCell="Y152" sqref="Y152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="14" zeroHeight="1" x14ac:dyDescent="0.15"/>
@@ -2841,7 +2919,7 @@
         <v>29</v>
       </c>
       <c r="AA2" s="33" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="AB2" s="33" t="s">
         <v>30</v>
@@ -2880,7 +2958,7 @@
         <v>40</v>
       </c>
       <c r="AN2" s="33" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AO2" s="45" t="s">
         <v>41</v>
@@ -2993,7 +3071,7 @@
         <v>73</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="G3" s="12">
         <v>4</v>
@@ -3181,7 +3259,7 @@
         <v>78</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="G4" s="17">
         <v>4</v>
@@ -3369,7 +3447,7 @@
         <v>73</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="G5" s="17">
         <v>4</v>
@@ -3569,7 +3647,7 @@
         <v>80</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="G6" s="17">
         <v>4</v>
@@ -3759,7 +3837,7 @@
         <v>84</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="G7" s="17">
         <v>3</v>
@@ -3947,7 +4025,7 @@
         <v>73</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="G8" s="17">
         <v>3</v>
@@ -4149,7 +4227,7 @@
         <v>89</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="G9" s="17">
         <v>3</v>
@@ -4351,7 +4429,7 @@
         <v>89</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="G10" s="17">
         <v>5</v>
@@ -4541,7 +4619,7 @@
         <v>73</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="G11" s="17">
         <v>5</v>
@@ -4731,7 +4809,7 @@
         <v>73</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>223</v>
+        <v>235</v>
       </c>
       <c r="G12" s="17">
         <v>3</v>
@@ -4919,7 +4997,7 @@
         <v>80</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="G13" s="17">
         <v>4</v>
@@ -5109,7 +5187,7 @@
         <v>78</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>225</v>
+        <v>237</v>
       </c>
       <c r="G14" s="17">
         <v>4</v>
@@ -5299,7 +5377,7 @@
         <v>78</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="G15" s="17">
         <v>4</v>
@@ -5507,7 +5585,7 @@
         <v>78</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="G16" s="17">
         <v>4</v>
@@ -5717,7 +5795,7 @@
         <v>78</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="G17" s="17">
         <v>3</v>
@@ -5921,7 +5999,7 @@
         <v>73</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="G18" s="17">
         <v>5</v>
@@ -6109,7 +6187,7 @@
         <v>78</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="G19" s="17">
         <v>4</v>
@@ -6299,7 +6377,7 @@
         <v>89</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="G20" s="17">
         <v>4</v>
@@ -6487,7 +6565,7 @@
         <v>78</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="G21" s="17">
         <v>4</v>
@@ -6675,7 +6753,7 @@
         <v>78</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>233</v>
+        <v>245</v>
       </c>
       <c r="G22" s="17">
         <v>3</v>
@@ -6875,7 +6953,7 @@
         <v>73</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="G23" s="17">
         <v>4</v>
@@ -7077,7 +7155,7 @@
         <v>78</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="G24" s="17">
         <v>4</v>
@@ -7281,7 +7359,7 @@
         <v>73</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="G25" s="17">
         <v>3</v>
@@ -7471,7 +7549,7 @@
         <v>73</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="G26" s="17">
         <v>3</v>
@@ -7661,7 +7739,7 @@
         <v>73</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="G27" s="17">
         <v>3</v>
@@ -7851,7 +7929,7 @@
         <v>73</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>239</v>
+        <v>251</v>
       </c>
       <c r="G28" s="17">
         <v>2</v>
@@ -8041,7 +8119,7 @@
         <v>78</v>
       </c>
       <c r="F29" s="18" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="G29" s="17">
         <v>4</v>
@@ -8233,7 +8311,7 @@
         <v>73</v>
       </c>
       <c r="F30" s="18" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="G30" s="17">
         <v>3</v>
@@ -8421,7 +8499,7 @@
         <v>78</v>
       </c>
       <c r="F31" s="22" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="G31" s="21">
         <v>5</v>
@@ -8611,7 +8689,7 @@
         <v>78</v>
       </c>
       <c r="F32" s="22" t="s">
-        <v>243</v>
+        <v>255</v>
       </c>
       <c r="G32" s="21">
         <v>4</v>
@@ -8801,7 +8879,7 @@
         <v>73</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="G33" s="21">
         <v>3</v>
@@ -8991,7 +9069,7 @@
         <v>73</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="G34" s="21">
         <v>4</v>
@@ -9193,7 +9271,7 @@
         <v>78</v>
       </c>
       <c r="F35" s="22" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="G35" s="21">
         <v>3</v>
@@ -9383,7 +9461,7 @@
         <v>78</v>
       </c>
       <c r="F36" s="22" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="G36" s="21">
         <v>3</v>
@@ -9589,7 +9667,7 @@
         <v>78</v>
       </c>
       <c r="F37" s="22" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="G37" s="21">
         <v>4</v>
@@ -9781,7 +9859,7 @@
         <v>73</v>
       </c>
       <c r="F38" s="22" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="G38" s="21">
         <v>3</v>
@@ -9969,7 +10047,7 @@
         <v>73</v>
       </c>
       <c r="F39" s="22" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="G39" s="21">
         <v>3</v>
@@ -10159,7 +10237,7 @@
         <v>78</v>
       </c>
       <c r="F40" s="22" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="G40" s="21">
         <v>3</v>
@@ -10351,7 +10429,7 @@
         <v>73</v>
       </c>
       <c r="F41" s="22" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="G41" s="21">
         <v>4</v>
@@ -10541,7 +10619,7 @@
         <v>73</v>
       </c>
       <c r="F42" s="22" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G42" s="21">
         <v>2</v>
@@ -10731,7 +10809,7 @@
         <v>73</v>
       </c>
       <c r="F43" s="22" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="G43" s="21">
         <v>3</v>
@@ -10863,8 +10941,8 @@
       <c r="AZ43" s="21">
         <v>1</v>
       </c>
-      <c r="BA43" s="57" t="s">
-        <v>101</v>
+      <c r="BA43" s="20" t="s">
+        <v>212</v>
       </c>
       <c r="BB43" s="21">
         <v>3</v>
@@ -10939,7 +11017,7 @@
         <v>73</v>
       </c>
       <c r="F44" s="22" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="G44" s="21">
         <v>4</v>
@@ -11127,7 +11205,7 @@
         <v>80</v>
       </c>
       <c r="F45" s="22" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="G45" s="21">
         <v>4</v>
@@ -11331,7 +11409,7 @@
         <v>73</v>
       </c>
       <c r="F46" s="22" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="G46" s="21">
         <v>4</v>
@@ -11535,7 +11613,7 @@
         <v>73</v>
       </c>
       <c r="F47" s="22" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G47" s="21">
         <v>3</v>
@@ -11741,7 +11819,7 @@
         <v>78</v>
       </c>
       <c r="F48" s="22" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="G48" s="21">
         <v>4</v>
@@ -11941,7 +12019,7 @@
         <v>73</v>
       </c>
       <c r="F49" s="22" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="G49" s="21">
         <v>2</v>
@@ -12131,7 +12209,7 @@
         <v>73</v>
       </c>
       <c r="F50" s="22" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="G50" s="21">
         <v>3</v>
@@ -12315,7 +12393,7 @@
         <v>78</v>
       </c>
       <c r="F51" s="22" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="G51" s="21">
         <v>5</v>
@@ -12501,7 +12579,7 @@
         <v>89</v>
       </c>
       <c r="F52" s="22" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="G52" s="21">
         <v>5</v>
@@ -12709,7 +12787,7 @@
         <v>78</v>
       </c>
       <c r="F53" s="22" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="G53" s="21">
         <v>4</v>
@@ -12897,7 +12975,7 @@
         <v>73</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="G54" s="25">
         <v>3</v>
@@ -13089,7 +13167,7 @@
         <v>78</v>
       </c>
       <c r="F55" s="26" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G55" s="25">
         <v>4</v>
@@ -13277,7 +13355,7 @@
         <v>80</v>
       </c>
       <c r="F56" s="26" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G56" s="25">
         <v>3</v>
@@ -13479,7 +13557,7 @@
         <v>73</v>
       </c>
       <c r="F57" s="26" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="G57" s="25">
         <v>4</v>
@@ -13669,7 +13747,7 @@
         <v>73</v>
       </c>
       <c r="F58" s="26" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="G58" s="25">
         <v>3</v>
@@ -13877,7 +13955,7 @@
         <v>78</v>
       </c>
       <c r="F59" s="26" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="G59" s="25">
         <v>4</v>
@@ -14073,7 +14151,7 @@
         <v>73</v>
       </c>
       <c r="F60" s="26" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="G60" s="25">
         <v>2</v>
@@ -14263,7 +14341,7 @@
         <v>73</v>
       </c>
       <c r="F61" s="26" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="G61" s="25">
         <v>3</v>
@@ -14461,7 +14539,7 @@
         <v>73</v>
       </c>
       <c r="F62" s="26" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="G62" s="25">
         <v>4</v>
@@ -14558,7 +14636,7 @@
         <v>1</v>
       </c>
       <c r="AO62" s="52" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AP62" s="25">
         <v>0</v>
@@ -14661,7 +14739,7 @@
         <v>78</v>
       </c>
       <c r="F63" s="26" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="G63" s="25">
         <v>3</v>
@@ -14746,7 +14824,7 @@
       <c r="AM63" s="25"/>
       <c r="AN63" s="25"/>
       <c r="AO63" s="52" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AP63" s="25">
         <v>0</v>
@@ -14849,7 +14927,7 @@
         <v>73</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="G64" s="25">
         <v>3</v>
@@ -14934,7 +15012,7 @@
       <c r="AM64" s="25"/>
       <c r="AN64" s="25"/>
       <c r="AO64" s="52" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AP64" s="25">
         <v>0</v>
@@ -15037,7 +15115,7 @@
         <v>89</v>
       </c>
       <c r="F65" s="26" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="G65" s="25">
         <v>2</v>
@@ -15136,7 +15214,7 @@
         <v>0</v>
       </c>
       <c r="AO65" s="52" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AP65" s="25">
         <v>0</v>
@@ -15243,7 +15321,7 @@
         <v>73</v>
       </c>
       <c r="F66" s="26" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="G66" s="25">
         <v>4</v>
@@ -15338,7 +15416,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="52" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AP66" s="25">
         <v>0</v>
@@ -15445,7 +15523,7 @@
         <v>89</v>
       </c>
       <c r="F67" s="26" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="G67" s="25">
         <v>3</v>
@@ -15526,7 +15604,7 @@
         <v>0</v>
       </c>
       <c r="AO67" s="52" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AP67" s="25">
         <v>0</v>
@@ -15631,7 +15709,7 @@
         <v>78</v>
       </c>
       <c r="F68" s="26" t="s">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="G68" s="25">
         <v>4</v>
@@ -15716,7 +15794,7 @@
       <c r="AM68" s="25"/>
       <c r="AN68" s="25"/>
       <c r="AO68" s="52" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AP68" s="25">
         <v>0</v>
@@ -15817,7 +15895,7 @@
         <v>89</v>
       </c>
       <c r="F69" s="26" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="G69" s="25">
         <v>3</v>
@@ -15916,7 +15994,7 @@
         <v>1</v>
       </c>
       <c r="AO69" s="52" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="AP69" s="25">
         <v>0</v>
@@ -16023,7 +16101,7 @@
         <v>73</v>
       </c>
       <c r="F70" s="26" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="G70" s="25">
         <v>3</v>
@@ -16211,7 +16289,7 @@
         <v>73</v>
       </c>
       <c r="F71" s="26" t="s">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="G71" s="25">
         <v>3</v>
@@ -16415,7 +16493,7 @@
         <v>73</v>
       </c>
       <c r="F72" s="26" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="G72" s="25">
         <v>4</v>
@@ -16605,7 +16683,7 @@
         <v>73</v>
       </c>
       <c r="F73" s="26" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="G73" s="25">
         <v>4</v>
@@ -16793,7 +16871,7 @@
         <v>78</v>
       </c>
       <c r="F74" s="26" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="G74" s="25">
         <v>4</v>
@@ -16981,7 +17059,7 @@
         <v>80</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="G75" s="25">
         <v>3</v>
@@ -17167,7 +17245,7 @@
         <v>78</v>
       </c>
       <c r="F76" s="26" t="s">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="G76" s="25">
         <v>3</v>
@@ -17359,7 +17437,7 @@
         <v>73</v>
       </c>
       <c r="F77" s="26" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="G77" s="25">
         <v>3</v>
@@ -17549,7 +17627,7 @@
         <v>89</v>
       </c>
       <c r="F78" s="26" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="G78" s="25">
         <v>3</v>
@@ -17741,7 +17819,7 @@
         <v>78</v>
       </c>
       <c r="F79" s="26" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G79" s="25">
         <v>3</v>
@@ -17929,7 +18007,7 @@
         <v>73</v>
       </c>
       <c r="F80" s="26" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="G80" s="25">
         <v>4</v>
@@ -18129,7 +18207,7 @@
         <v>73</v>
       </c>
       <c r="F81" s="26" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="G81" s="25">
         <v>3</v>
@@ -18337,7 +18415,7 @@
         <v>78</v>
       </c>
       <c r="F82" s="26" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="G82" s="25">
         <v>2</v>
@@ -18541,7 +18619,7 @@
         <v>89</v>
       </c>
       <c r="F83" s="26" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="G83" s="25">
         <v>3</v>
@@ -18628,7 +18706,7 @@
       <c r="AM83" s="24"/>
       <c r="AN83" s="24"/>
       <c r="AO83" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP83" s="25">
         <v>0</v>
@@ -18731,7 +18809,7 @@
         <v>84</v>
       </c>
       <c r="F84" s="26" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="G84" s="25">
         <v>3</v>
@@ -18816,7 +18894,7 @@
       <c r="AM84" s="24"/>
       <c r="AN84" s="24"/>
       <c r="AO84" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP84" s="25">
         <v>0</v>
@@ -19028,7 +19106,7 @@
         <v>73</v>
       </c>
       <c r="F85" s="26" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="G85" s="25">
         <v>4</v>
@@ -19125,7 +19203,7 @@
         <v>116</v>
       </c>
       <c r="AO85" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP85" s="25">
         <v>0</v>
@@ -19337,7 +19415,7 @@
         <v>78</v>
       </c>
       <c r="F86" s="26" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="G86" s="25">
         <v>3</v>
@@ -19432,7 +19510,7 @@
         <v>116</v>
       </c>
       <c r="AO86" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP86" s="25">
         <v>-1</v>
@@ -19648,7 +19726,7 @@
         <v>73</v>
       </c>
       <c r="F87" s="26" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="G87" s="25">
         <v>3</v>
@@ -19745,7 +19823,7 @@
         <v>116</v>
       </c>
       <c r="AO87" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP87" s="25">
         <v>0</v>
@@ -19959,7 +20037,7 @@
         <v>73</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="G88" s="25">
         <v>4</v>
@@ -20046,7 +20124,7 @@
       <c r="AM88" s="24"/>
       <c r="AN88" s="24"/>
       <c r="AO88" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP88" s="25">
         <v>0</v>
@@ -20258,7 +20336,7 @@
         <v>73</v>
       </c>
       <c r="F89" s="26" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="G89" s="25">
         <v>3</v>
@@ -20355,7 +20433,7 @@
         <v>116</v>
       </c>
       <c r="AO89" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP89" s="25">
         <v>0</v>
@@ -20569,7 +20647,7 @@
         <v>80</v>
       </c>
       <c r="F90" s="26" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="G90" s="25">
         <v>4</v>
@@ -20654,7 +20732,7 @@
       <c r="AM90" s="24"/>
       <c r="AN90" s="24"/>
       <c r="AO90" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP90" s="25">
         <v>0</v>
@@ -20868,7 +20946,7 @@
         <v>78</v>
       </c>
       <c r="F91" s="26" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="G91" s="25">
         <v>3</v>
@@ -20943,7 +21021,7 @@
       <c r="AM91" s="24"/>
       <c r="AN91" s="24"/>
       <c r="AO91" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP91" s="25">
         <v>0</v>
@@ -21157,7 +21235,7 @@
         <v>89</v>
       </c>
       <c r="F92" s="26" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G92" s="25">
         <v>4</v>
@@ -21244,7 +21322,7 @@
       <c r="AM92" s="24"/>
       <c r="AN92" s="24"/>
       <c r="AO92" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP92" s="25">
         <v>0</v>
@@ -21458,7 +21536,7 @@
         <v>73</v>
       </c>
       <c r="F93" s="26" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="G93" s="25">
         <v>3</v>
@@ -21543,7 +21621,7 @@
       <c r="AM93" s="24"/>
       <c r="AN93" s="24"/>
       <c r="AO93" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP93" s="25">
         <v>0</v>
@@ -21757,7 +21835,7 @@
         <v>73</v>
       </c>
       <c r="F94" s="26" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="G94" s="25">
         <v>4</v>
@@ -21842,7 +21920,7 @@
         <v>116</v>
       </c>
       <c r="AO94" s="52" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="AP94" s="25">
         <v>0</v>
@@ -22054,7 +22132,7 @@
         <v>73</v>
       </c>
       <c r="F95" s="26" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="G95" s="25">
         <v>2</v>
@@ -22139,7 +22217,7 @@
       <c r="AM95" s="24"/>
       <c r="AN95" s="24"/>
       <c r="AO95" s="52" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AP95" s="25">
         <v>0</v>
@@ -22337,7 +22415,7 @@
     </row>
     <row r="96" spans="1:180" ht="28" x14ac:dyDescent="0.15">
       <c r="A96" s="14">
-        <f t="shared" ref="A96:A142" si="7">A95+1</f>
+        <f t="shared" ref="A96:A152" si="7">A95+1</f>
         <v>94</v>
       </c>
       <c r="B96" s="23" t="s">
@@ -22353,7 +22431,7 @@
         <v>73</v>
       </c>
       <c r="F96" s="26" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="G96" s="25">
         <v>4</v>
@@ -22454,7 +22532,7 @@
         <v>101</v>
       </c>
       <c r="AO96" s="52" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AP96" s="25">
         <v>0</v>
@@ -22668,7 +22746,7 @@
         <v>89</v>
       </c>
       <c r="F97" s="26" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="G97" s="25">
         <v>2</v>
@@ -22753,7 +22831,7 @@
       <c r="AM97" s="24"/>
       <c r="AN97" s="24"/>
       <c r="AO97" s="52" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AP97" s="25">
         <v>0</v>
@@ -22967,7 +23045,7 @@
         <v>73</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="G98" s="25">
         <v>3</v>
@@ -23052,7 +23130,7 @@
       <c r="AM98" s="24"/>
       <c r="AN98" s="24"/>
       <c r="AO98" s="52" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AP98" s="25">
         <v>0</v>
@@ -23264,7 +23342,7 @@
         <v>78</v>
       </c>
       <c r="F99" s="26" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="G99" s="25">
         <v>3</v>
@@ -23349,7 +23427,7 @@
       <c r="AM99" s="24"/>
       <c r="AN99" s="24"/>
       <c r="AO99" s="52" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AP99" s="25">
         <v>0</v>
@@ -23563,7 +23641,7 @@
         <v>78</v>
       </c>
       <c r="F100" s="26" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="G100" s="25">
         <v>4</v>
@@ -23648,7 +23726,7 @@
       <c r="AM100" s="24"/>
       <c r="AN100" s="24"/>
       <c r="AO100" s="52" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AP100" s="25">
         <v>0</v>
@@ -23860,7 +23938,7 @@
         <v>89</v>
       </c>
       <c r="F101" s="26" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G101" s="25">
         <v>3</v>
@@ -23957,7 +24035,7 @@
         <v>116</v>
       </c>
       <c r="AO101" s="52" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AP101" s="25">
         <v>0</v>
@@ -23989,7 +24067,7 @@
         <v>1</v>
       </c>
       <c r="BA101" s="24" t="s">
-        <v>101</v>
+        <v>213</v>
       </c>
       <c r="BB101" s="25">
         <v>2</v>
@@ -24171,7 +24249,7 @@
         <v>78</v>
       </c>
       <c r="F102" s="26" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="G102" s="25">
         <v>3</v>
@@ -24258,7 +24336,7 @@
       <c r="AM102" s="24"/>
       <c r="AN102" s="24"/>
       <c r="AO102" s="52" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AP102" s="25">
         <v>0</v>
@@ -24363,7 +24441,7 @@
         <v>89</v>
       </c>
       <c r="F103" s="26" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="G103" s="25">
         <v>5</v>
@@ -24553,7 +24631,7 @@
         <v>73</v>
       </c>
       <c r="F104" s="26" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="G104" s="25">
         <v>3</v>
@@ -24741,7 +24819,7 @@
         <v>73</v>
       </c>
       <c r="F105" s="26" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="G105" s="25">
         <v>3</v>
@@ -24931,7 +25009,7 @@
         <v>73</v>
       </c>
       <c r="F106" s="26" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="G106" s="25">
         <v>3</v>
@@ -25123,7 +25201,7 @@
         <v>78</v>
       </c>
       <c r="F107" s="26" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="G107" s="25">
         <v>3</v>
@@ -25311,7 +25389,7 @@
         <v>73</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="G108" s="25">
         <v>3</v>
@@ -25499,7 +25577,7 @@
         <v>73</v>
       </c>
       <c r="F109" s="26" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="G109" s="25">
         <v>3</v>
@@ -25687,7 +25765,7 @@
         <v>73</v>
       </c>
       <c r="F110" s="26" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="G110" s="25">
         <v>3</v>
@@ -25877,7 +25955,7 @@
         <v>73</v>
       </c>
       <c r="F111" s="26" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="G111" s="25">
         <v>3</v>
@@ -26065,7 +26143,7 @@
         <v>78</v>
       </c>
       <c r="F112" s="26" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="G112" s="25">
         <v>3</v>
@@ -26255,7 +26333,7 @@
         <v>89</v>
       </c>
       <c r="F113" s="26" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="G113" s="25">
         <v>3</v>
@@ -26449,7 +26527,7 @@
         <v>73</v>
       </c>
       <c r="F114" s="26" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="G114" s="25">
         <v>3</v>
@@ -26651,7 +26729,7 @@
         <v>89</v>
       </c>
       <c r="F115" s="26" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="G115" s="25">
         <v>4</v>
@@ -26839,7 +26917,7 @@
         <v>78</v>
       </c>
       <c r="F116" s="26" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="G116" s="25">
         <v>3</v>
@@ -27039,7 +27117,7 @@
         <v>73</v>
       </c>
       <c r="F117" s="26" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="G117" s="25">
         <v>3</v>
@@ -27215,7 +27293,7 @@
         <v>73</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="G118" s="25">
         <v>3</v>
@@ -27405,7 +27483,7 @@
         <v>73</v>
       </c>
       <c r="F119" s="26" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="G119" s="25">
         <v>4</v>
@@ -27595,7 +27673,7 @@
         <v>89</v>
       </c>
       <c r="F120" s="26" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="G120" s="25">
         <v>3</v>
@@ -27783,7 +27861,7 @@
         <v>73</v>
       </c>
       <c r="F121" s="26" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G121" s="25">
         <v>4</v>
@@ -27973,7 +28051,7 @@
         <v>89</v>
       </c>
       <c r="F122" s="26" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="G122" s="25">
         <v>1</v>
@@ -28175,7 +28253,7 @@
         <v>78</v>
       </c>
       <c r="F123" s="26" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="G123" s="25">
         <v>4</v>
@@ -28363,7 +28441,7 @@
         <v>89</v>
       </c>
       <c r="F124" s="26" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="G124" s="25">
         <v>3</v>
@@ -28555,7 +28633,7 @@
         <v>73</v>
       </c>
       <c r="F125" s="26" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="G125" s="25">
         <v>3</v>
@@ -28757,7 +28835,7 @@
         <v>78</v>
       </c>
       <c r="F126" s="26" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="G126" s="25">
         <v>3</v>
@@ -28959,7 +29037,7 @@
         <v>78</v>
       </c>
       <c r="F127" s="26" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="G127" s="25">
         <v>3</v>
@@ -29165,7 +29243,7 @@
         <v>78</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="G128" s="25">
         <v>4</v>
@@ -29367,7 +29445,7 @@
         <v>73</v>
       </c>
       <c r="F129" s="26" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="G129" s="25">
         <v>5</v>
@@ -29559,7 +29637,7 @@
         <v>89</v>
       </c>
       <c r="F130" s="26" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="G130" s="25">
         <v>4</v>
@@ -29759,7 +29837,7 @@
         <v>73</v>
       </c>
       <c r="F131" s="26" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="G131" s="25">
         <v>3</v>
@@ -29949,7 +30027,7 @@
         <v>73</v>
       </c>
       <c r="F132" s="26" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="G132" s="25">
         <v>4</v>
@@ -30137,7 +30215,7 @@
         <v>89</v>
       </c>
       <c r="F133" s="26" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="G133" s="25">
         <v>3</v>
@@ -30337,7 +30415,7 @@
         <v>73</v>
       </c>
       <c r="F134" s="26" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="G134" s="25">
         <v>3</v>
@@ -30525,7 +30603,7 @@
         <v>78</v>
       </c>
       <c r="F135" s="26" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="G135" s="25">
         <v>4</v>
@@ -30652,7 +30730,7 @@
         <v>1</v>
       </c>
       <c r="BA135" s="24" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="BB135" s="25">
         <v>1</v>
@@ -30725,7 +30803,7 @@
         <v>73</v>
       </c>
       <c r="F136" s="26" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="G136" s="25">
         <v>3</v>
@@ -30856,7 +30934,7 @@
         <v>1</v>
       </c>
       <c r="BA136" s="24" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="BB136" s="25">
         <v>3</v>
@@ -30931,7 +31009,7 @@
         <v>73</v>
       </c>
       <c r="F137" s="26" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="G137" s="25">
         <v>3</v>
@@ -31135,7 +31213,7 @@
         <v>73</v>
       </c>
       <c r="F138" s="26" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="G138" s="25">
         <v>4</v>
@@ -31323,7 +31401,7 @@
         <v>78</v>
       </c>
       <c r="F139" s="26" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="G139" s="25">
         <v>3</v>
@@ -31523,7 +31601,7 @@
         <v>89</v>
       </c>
       <c r="F140" s="26" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="G140" s="25">
         <v>3</v>
@@ -31709,7 +31787,7 @@
         <v>89</v>
       </c>
       <c r="F141" s="26" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="G141" s="25">
         <v>3</v>
@@ -31838,7 +31916,7 @@
         <v>1</v>
       </c>
       <c r="BA141" s="24" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="BB141" s="25">
         <v>3</v>
@@ -31901,7 +31979,7 @@
         <v>140</v>
       </c>
       <c r="B142" s="23" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C142" s="24" t="s">
         <v>88</v>
@@ -31913,7 +31991,7 @@
         <v>73</v>
       </c>
       <c r="F142" s="26" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="G142" s="25">
         <v>5</v>
@@ -32083,346 +32161,2711 @@
         <v>5</v>
       </c>
     </row>
-    <row r="143" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="14"/>
-      <c r="B143" s="23"/>
-      <c r="C143" s="24"/>
-      <c r="D143" s="25"/>
-      <c r="E143" s="24"/>
-      <c r="F143" s="26"/>
-      <c r="G143" s="25"/>
-      <c r="H143" s="25"/>
-      <c r="I143" s="25"/>
-      <c r="J143" s="25"/>
-      <c r="K143" s="25"/>
-      <c r="L143" s="25"/>
-      <c r="M143" s="25"/>
-      <c r="N143" s="25"/>
-      <c r="O143" s="25"/>
-      <c r="P143" s="24"/>
-      <c r="Q143" s="25"/>
-      <c r="R143" s="25"/>
-      <c r="S143" s="25"/>
-      <c r="T143" s="25"/>
-      <c r="U143" s="25"/>
-      <c r="V143" s="25"/>
-      <c r="W143" s="25"/>
-      <c r="X143" s="25"/>
-      <c r="Y143" s="25"/>
-      <c r="Z143" s="25"/>
-      <c r="AA143" s="25"/>
-      <c r="AB143" s="25"/>
+    <row r="143" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A143" s="14">
+        <f t="shared" si="7"/>
+        <v>141</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="C143" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D143" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E143" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F143" s="26" t="s">
+        <v>369</v>
+      </c>
+      <c r="G143" s="25">
+        <v>3</v>
+      </c>
+      <c r="H143" s="25">
+        <v>3</v>
+      </c>
+      <c r="I143" s="25">
+        <v>3</v>
+      </c>
+      <c r="J143" s="25">
+        <v>1</v>
+      </c>
+      <c r="K143" s="25">
+        <v>1</v>
+      </c>
+      <c r="L143" s="25">
+        <v>1</v>
+      </c>
+      <c r="M143" s="25">
+        <v>0</v>
+      </c>
+      <c r="N143" s="25">
+        <v>1</v>
+      </c>
+      <c r="O143" s="25">
+        <v>3</v>
+      </c>
+      <c r="P143" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q143" s="25">
+        <v>3</v>
+      </c>
+      <c r="R143" s="25">
+        <v>3</v>
+      </c>
+      <c r="S143" s="25">
+        <v>5</v>
+      </c>
+      <c r="T143" s="25">
+        <v>5</v>
+      </c>
+      <c r="U143" s="25">
+        <v>5</v>
+      </c>
+      <c r="V143" s="25">
+        <v>0</v>
+      </c>
+      <c r="W143" s="25">
+        <v>1</v>
+      </c>
+      <c r="X143" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y143" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z143" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA143" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB143" s="25">
+        <v>0</v>
+      </c>
       <c r="AC143" s="24"/>
       <c r="AD143" s="24"/>
-      <c r="AE143" s="25"/>
+      <c r="AE143" s="25">
+        <v>0</v>
+      </c>
       <c r="AF143" s="24"/>
       <c r="AG143" s="24"/>
-      <c r="AH143" s="25"/>
+      <c r="AH143" s="25">
+        <v>0</v>
+      </c>
       <c r="AI143" s="24"/>
       <c r="AJ143" s="25"/>
       <c r="AK143" s="24"/>
       <c r="AL143" s="24"/>
       <c r="AM143" s="24"/>
       <c r="AN143" s="24"/>
-      <c r="AO143" s="52"/>
-      <c r="AP143" s="25"/>
+      <c r="AO143" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP143" s="25">
+        <v>0</v>
+      </c>
       <c r="AQ143" s="72"/>
-      <c r="AR143" s="25"/>
+      <c r="AR143" s="25">
+        <v>0</v>
+      </c>
       <c r="AS143" s="25"/>
-      <c r="AT143" s="25"/>
-      <c r="AU143" s="25"/>
-      <c r="AV143" s="25"/>
-      <c r="AW143" s="25"/>
-      <c r="AX143" s="25"/>
-      <c r="AY143" s="25"/>
-      <c r="AZ143" s="25"/>
+      <c r="AT143" s="25">
+        <v>5</v>
+      </c>
+      <c r="AU143" s="25">
+        <v>5</v>
+      </c>
+      <c r="AV143" s="25">
+        <v>5</v>
+      </c>
+      <c r="AW143" s="25">
+        <v>5</v>
+      </c>
+      <c r="AX143" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY143" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ143" s="25">
+        <v>0</v>
+      </c>
       <c r="BA143" s="24"/>
-      <c r="BB143" s="25"/>
-      <c r="BC143" s="25"/>
-      <c r="BD143" s="25"/>
-      <c r="BE143" s="25"/>
-      <c r="BF143" s="25"/>
-      <c r="BG143" s="25"/>
-      <c r="BH143" s="25"/>
-      <c r="BI143" s="25"/>
+      <c r="BB143" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BD143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BE143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BF143" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG143" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH143" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI143" s="25">
+        <v>5</v>
+      </c>
       <c r="BJ143" s="25"/>
-      <c r="BK143" s="25"/>
-      <c r="BL143" s="25"/>
-      <c r="BM143" s="25"/>
-      <c r="BN143" s="25"/>
-      <c r="BO143" s="24"/>
-      <c r="BP143" s="25"/>
-      <c r="BQ143" s="62"/>
-      <c r="BR143" s="21"/>
-      <c r="BS143" s="78"/>
+      <c r="BK143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BL143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BM143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BN143" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO143" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP143" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ143" s="62">
+        <v>5</v>
+      </c>
+      <c r="BR143" s="21">
+        <v>5</v>
+      </c>
+      <c r="BS143" s="78">
+        <v>5</v>
+      </c>
     </row>
-    <row r="144" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="14"/>
+    <row r="144" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A144" s="14">
+        <f t="shared" si="7"/>
+        <v>142</v>
+      </c>
       <c r="B144" s="23"/>
-      <c r="C144" s="24"/>
-      <c r="D144" s="25"/>
-      <c r="E144" s="24"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="25"/>
-      <c r="H144" s="25"/>
-      <c r="I144" s="25"/>
-      <c r="J144" s="25"/>
-      <c r="K144" s="25"/>
-      <c r="L144" s="25"/>
-      <c r="M144" s="25"/>
-      <c r="N144" s="25"/>
-      <c r="O144" s="25"/>
-      <c r="P144" s="24"/>
-      <c r="Q144" s="25"/>
-      <c r="R144" s="25"/>
-      <c r="S144" s="25"/>
-      <c r="T144" s="25"/>
-      <c r="U144" s="25"/>
-      <c r="V144" s="25"/>
-      <c r="W144" s="25"/>
-      <c r="X144" s="25"/>
-      <c r="Y144" s="25"/>
-      <c r="Z144" s="25"/>
-      <c r="AA144" s="25"/>
-      <c r="AB144" s="25"/>
-      <c r="AC144" s="24"/>
-      <c r="AD144" s="24"/>
-      <c r="AE144" s="25"/>
+      <c r="C144" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D144" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E144" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F144" s="26" t="s">
+        <v>370</v>
+      </c>
+      <c r="G144" s="25">
+        <v>3</v>
+      </c>
+      <c r="H144" s="25">
+        <v>3</v>
+      </c>
+      <c r="I144" s="25">
+        <v>2</v>
+      </c>
+      <c r="J144" s="25">
+        <v>0</v>
+      </c>
+      <c r="K144" s="25">
+        <v>1</v>
+      </c>
+      <c r="L144" s="25">
+        <v>1</v>
+      </c>
+      <c r="M144" s="25">
+        <v>0</v>
+      </c>
+      <c r="N144" s="25">
+        <v>1</v>
+      </c>
+      <c r="O144" s="25">
+        <v>3</v>
+      </c>
+      <c r="P144" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q144" s="25">
+        <v>3</v>
+      </c>
+      <c r="R144" s="25">
+        <v>3</v>
+      </c>
+      <c r="S144" s="25">
+        <v>3</v>
+      </c>
+      <c r="T144" s="25">
+        <v>3</v>
+      </c>
+      <c r="U144" s="25">
+        <v>3</v>
+      </c>
+      <c r="V144" s="25">
+        <v>0</v>
+      </c>
+      <c r="W144" s="25">
+        <v>1</v>
+      </c>
+      <c r="X144" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y144" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z144" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB144" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC144" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD144" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="AE144" s="25">
+        <v>0</v>
+      </c>
       <c r="AF144" s="24"/>
       <c r="AG144" s="24"/>
-      <c r="AH144" s="25"/>
+      <c r="AH144" s="25">
+        <v>0</v>
+      </c>
       <c r="AI144" s="24"/>
       <c r="AJ144" s="25"/>
       <c r="AK144" s="24"/>
-      <c r="AL144" s="24"/>
-      <c r="AM144" s="24"/>
-      <c r="AN144" s="24"/>
-      <c r="AO144" s="52"/>
-      <c r="AP144" s="25"/>
+      <c r="AL144" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="AM144" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AN144" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO144" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP144" s="25">
+        <v>0</v>
+      </c>
       <c r="AQ144" s="72"/>
-      <c r="AR144" s="25"/>
+      <c r="AR144" s="25">
+        <v>0</v>
+      </c>
       <c r="AS144" s="25"/>
-      <c r="AT144" s="25"/>
-      <c r="AU144" s="25"/>
-      <c r="AV144" s="25"/>
-      <c r="AW144" s="25"/>
-      <c r="AX144" s="25"/>
-      <c r="AY144" s="25"/>
-      <c r="AZ144" s="25"/>
+      <c r="AT144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY144" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ144" s="25">
+        <v>0</v>
+      </c>
       <c r="BA144" s="24"/>
-      <c r="BB144" s="25"/>
-      <c r="BC144" s="25"/>
-      <c r="BD144" s="25"/>
-      <c r="BE144" s="25"/>
-      <c r="BF144" s="25"/>
-      <c r="BG144" s="25"/>
-      <c r="BH144" s="25"/>
-      <c r="BI144" s="25"/>
-      <c r="BJ144" s="25"/>
-      <c r="BK144" s="25"/>
-      <c r="BL144" s="25"/>
-      <c r="BM144" s="25"/>
-      <c r="BN144" s="25"/>
-      <c r="BO144" s="24"/>
-      <c r="BP144" s="25"/>
-      <c r="BQ144" s="76"/>
-      <c r="BR144" s="77"/>
-      <c r="BS144" s="78"/>
+      <c r="BB144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH144" s="25">
+        <v>1</v>
+      </c>
+      <c r="BI144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ144" s="25">
+        <v>2</v>
+      </c>
+      <c r="BK144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM144" s="25">
+        <v>3</v>
+      </c>
+      <c r="BN144" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO144" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP144" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ144" s="76">
+        <v>3</v>
+      </c>
+      <c r="BR144" s="77">
+        <v>3</v>
+      </c>
+      <c r="BS144" s="78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="145" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="14"/>
+    <row r="145" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A145" s="14">
+        <f t="shared" si="7"/>
+        <v>143</v>
+      </c>
       <c r="B145" s="23"/>
-      <c r="C145" s="24"/>
-      <c r="D145" s="25"/>
-      <c r="E145" s="24"/>
-      <c r="F145" s="26"/>
-      <c r="G145" s="25"/>
-      <c r="H145" s="25"/>
-      <c r="I145" s="25"/>
-      <c r="J145" s="25"/>
-      <c r="K145" s="25"/>
-      <c r="L145" s="25"/>
-      <c r="M145" s="25"/>
-      <c r="N145" s="25"/>
-      <c r="O145" s="25"/>
-      <c r="P145" s="24"/>
-      <c r="Q145" s="25"/>
-      <c r="R145" s="25"/>
-      <c r="S145" s="25"/>
-      <c r="T145" s="25"/>
-      <c r="U145" s="25"/>
-      <c r="V145" s="25"/>
-      <c r="W145" s="25"/>
-      <c r="X145" s="25"/>
-      <c r="Y145" s="25"/>
-      <c r="Z145" s="25"/>
-      <c r="AA145" s="25"/>
-      <c r="AB145" s="25"/>
+      <c r="C145" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D145" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E145" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F145" s="26" t="s">
+        <v>371</v>
+      </c>
+      <c r="G145" s="25">
+        <v>5</v>
+      </c>
+      <c r="H145" s="25">
+        <v>5</v>
+      </c>
+      <c r="I145" s="25">
+        <v>5</v>
+      </c>
+      <c r="J145" s="25">
+        <v>1</v>
+      </c>
+      <c r="K145" s="25">
+        <v>1</v>
+      </c>
+      <c r="L145" s="25">
+        <v>1</v>
+      </c>
+      <c r="M145" s="25">
+        <v>0</v>
+      </c>
+      <c r="N145" s="25">
+        <v>1</v>
+      </c>
+      <c r="O145" s="25">
+        <v>5</v>
+      </c>
+      <c r="P145" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q145" s="25">
+        <v>3</v>
+      </c>
+      <c r="R145" s="25">
+        <v>3</v>
+      </c>
+      <c r="S145" s="25">
+        <v>3</v>
+      </c>
+      <c r="T145" s="25">
+        <v>3</v>
+      </c>
+      <c r="U145" s="25">
+        <v>5</v>
+      </c>
+      <c r="V145" s="25">
+        <v>0</v>
+      </c>
+      <c r="W145" s="25">
+        <v>1</v>
+      </c>
+      <c r="X145" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y145" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA145" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB145" s="25">
+        <v>0</v>
+      </c>
       <c r="AC145" s="24"/>
       <c r="AD145" s="24"/>
-      <c r="AE145" s="25"/>
+      <c r="AE145" s="25">
+        <v>0</v>
+      </c>
       <c r="AF145" s="24"/>
       <c r="AG145" s="24"/>
-      <c r="AH145" s="25"/>
+      <c r="AH145" s="25">
+        <v>0</v>
+      </c>
       <c r="AI145" s="24"/>
       <c r="AJ145" s="25"/>
       <c r="AK145" s="24"/>
       <c r="AL145" s="24"/>
       <c r="AM145" s="24"/>
       <c r="AN145" s="24"/>
-      <c r="AO145" s="52"/>
-      <c r="AP145" s="25"/>
+      <c r="AO145" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP145" s="25">
+        <v>0</v>
+      </c>
       <c r="AQ145" s="72"/>
-      <c r="AR145" s="25"/>
-      <c r="AS145" s="25"/>
-      <c r="AT145" s="25"/>
-      <c r="AU145" s="25"/>
-      <c r="AV145" s="25"/>
-      <c r="AW145" s="25"/>
-      <c r="AX145" s="25"/>
-      <c r="AY145" s="25"/>
-      <c r="AZ145" s="25"/>
+      <c r="AR145" s="25">
+        <v>1</v>
+      </c>
+      <c r="AS145" s="25">
+        <v>300</v>
+      </c>
+      <c r="AT145" s="25">
+        <v>4</v>
+      </c>
+      <c r="AU145" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV145" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW145" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX145" s="25">
+        <v>5</v>
+      </c>
+      <c r="AY145" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ145" s="25">
+        <v>0</v>
+      </c>
       <c r="BA145" s="24"/>
-      <c r="BB145" s="25"/>
-      <c r="BC145" s="25"/>
-      <c r="BD145" s="25"/>
-      <c r="BE145" s="25"/>
-      <c r="BF145" s="25"/>
-      <c r="BG145" s="25"/>
-      <c r="BH145" s="25"/>
-      <c r="BI145" s="25"/>
+      <c r="BB145" s="25">
+        <v>4</v>
+      </c>
+      <c r="BC145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BD145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BE145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BF145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BG145" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH145" s="25">
+        <v>4</v>
+      </c>
+      <c r="BI145" s="25">
+        <v>5</v>
+      </c>
       <c r="BJ145" s="25"/>
-      <c r="BK145" s="25"/>
-      <c r="BL145" s="25"/>
-      <c r="BM145" s="25"/>
-      <c r="BN145" s="25"/>
-      <c r="BO145" s="24"/>
-      <c r="BP145" s="25"/>
-      <c r="BQ145" s="62"/>
-      <c r="BR145" s="21"/>
-      <c r="BS145" s="78"/>
+      <c r="BK145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BL145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BM145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BN145" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO145" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP145" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ145" s="76">
+        <v>5</v>
+      </c>
+      <c r="BR145" s="77">
+        <v>5</v>
+      </c>
+      <c r="BS145" s="78">
+        <v>5</v>
+      </c>
     </row>
-    <row r="146" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F146" s="75"/>
-      <c r="AQ146" s="73"/>
+    <row r="146" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A146" s="14">
+        <f t="shared" si="7"/>
+        <v>144</v>
+      </c>
+      <c r="B146" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="C146" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D146" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E146" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F146" s="26" t="s">
+        <v>372</v>
+      </c>
+      <c r="G146" s="25">
+        <v>5</v>
+      </c>
+      <c r="H146" s="25">
+        <v>5</v>
+      </c>
+      <c r="I146" s="25">
+        <v>5</v>
+      </c>
+      <c r="J146" s="25">
+        <v>1</v>
+      </c>
+      <c r="K146" s="25">
+        <v>1</v>
+      </c>
+      <c r="L146" s="25">
+        <v>1</v>
+      </c>
+      <c r="M146" s="25">
+        <v>0</v>
+      </c>
+      <c r="N146" s="25">
+        <v>1</v>
+      </c>
+      <c r="O146" s="25">
+        <v>5</v>
+      </c>
+      <c r="P146" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q146" s="25">
+        <v>3</v>
+      </c>
+      <c r="R146" s="25">
+        <v>3</v>
+      </c>
+      <c r="S146" s="25">
+        <v>3</v>
+      </c>
+      <c r="T146" s="25">
+        <v>5</v>
+      </c>
+      <c r="U146" s="25">
+        <v>5</v>
+      </c>
+      <c r="V146" s="25">
+        <v>0</v>
+      </c>
+      <c r="W146" s="25">
+        <v>1</v>
+      </c>
+      <c r="X146" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y146" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="24"/>
+      <c r="AD146" s="24"/>
+      <c r="AE146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF146" s="24"/>
+      <c r="AG146" s="24"/>
+      <c r="AH146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI146" s="24"/>
+      <c r="AJ146" s="25"/>
+      <c r="AK146" s="24"/>
+      <c r="AL146" s="24"/>
+      <c r="AM146" s="24"/>
+      <c r="AN146" s="24"/>
+      <c r="AO146" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ146" s="72"/>
+      <c r="AR146" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS146" s="25"/>
+      <c r="AT146" s="25">
+        <v>4</v>
+      </c>
+      <c r="AU146" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV146" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW146" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX146" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY146" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ146" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA146" s="24"/>
+      <c r="BB146" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BD146" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE146" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF146" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BH146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ146" s="25"/>
+      <c r="BK146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BL146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BM146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BN146" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO146" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP146" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ146" s="76">
+        <v>5</v>
+      </c>
+      <c r="BR146" s="77">
+        <v>5</v>
+      </c>
+      <c r="BS146" s="78">
+        <v>5</v>
+      </c>
     </row>
-    <row r="147" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F147" s="75"/>
-      <c r="AQ147" s="73"/>
+    <row r="147" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A147" s="14">
+        <f t="shared" si="7"/>
+        <v>145</v>
+      </c>
+      <c r="B147" s="23"/>
+      <c r="C147" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="D147" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E147" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F147" s="26" t="s">
+        <v>373</v>
+      </c>
+      <c r="G147" s="25">
+        <v>3</v>
+      </c>
+      <c r="H147" s="25">
+        <v>3</v>
+      </c>
+      <c r="I147" s="25">
+        <v>3</v>
+      </c>
+      <c r="J147" s="25">
+        <v>1</v>
+      </c>
+      <c r="K147" s="25">
+        <v>1</v>
+      </c>
+      <c r="L147" s="25">
+        <v>1</v>
+      </c>
+      <c r="M147" s="25">
+        <v>0</v>
+      </c>
+      <c r="N147" s="25">
+        <v>1</v>
+      </c>
+      <c r="O147" s="25">
+        <v>4</v>
+      </c>
+      <c r="P147" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q147" s="25">
+        <v>3</v>
+      </c>
+      <c r="R147" s="25">
+        <v>3</v>
+      </c>
+      <c r="S147" s="25">
+        <v>3</v>
+      </c>
+      <c r="T147" s="25">
+        <v>4</v>
+      </c>
+      <c r="U147" s="25">
+        <v>5</v>
+      </c>
+      <c r="V147" s="25">
+        <v>0</v>
+      </c>
+      <c r="W147" s="25">
+        <v>1</v>
+      </c>
+      <c r="X147" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y147" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="24"/>
+      <c r="AD147" s="24"/>
+      <c r="AE147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF147" s="24"/>
+      <c r="AG147" s="24"/>
+      <c r="AH147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI147" s="24"/>
+      <c r="AJ147" s="25"/>
+      <c r="AK147" s="24"/>
+      <c r="AL147" s="24"/>
+      <c r="AM147" s="24"/>
+      <c r="AN147" s="24"/>
+      <c r="AO147" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ147" s="72"/>
+      <c r="AR147" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS147" s="25"/>
+      <c r="AT147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY147" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ147" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA147" s="24"/>
+      <c r="BB147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC147" s="25">
+        <v>4</v>
+      </c>
+      <c r="BD147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG147" s="25">
+        <v>4</v>
+      </c>
+      <c r="BH147" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI147" s="25">
+        <v>5</v>
+      </c>
+      <c r="BJ147" s="25"/>
+      <c r="BK147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM147" s="25">
+        <v>3</v>
+      </c>
+      <c r="BN147" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO147" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP147" s="25">
+        <v>1</v>
+      </c>
+      <c r="BQ147" s="76">
+        <v>3</v>
+      </c>
+      <c r="BR147" s="77">
+        <v>3</v>
+      </c>
+      <c r="BS147" s="78">
+        <v>3</v>
+      </c>
     </row>
-    <row r="148" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F148" s="75"/>
-      <c r="AQ148" s="73"/>
+    <row r="148" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A148" s="14">
+        <f t="shared" si="7"/>
+        <v>146</v>
+      </c>
+      <c r="B148" s="23"/>
+      <c r="C148" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D148" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E148" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F148" s="26" t="s">
+        <v>374</v>
+      </c>
+      <c r="G148" s="25">
+        <v>3</v>
+      </c>
+      <c r="H148" s="25">
+        <v>3</v>
+      </c>
+      <c r="I148" s="25">
+        <v>3</v>
+      </c>
+      <c r="J148" s="25">
+        <v>0</v>
+      </c>
+      <c r="K148" s="25">
+        <v>1</v>
+      </c>
+      <c r="L148" s="25">
+        <v>1</v>
+      </c>
+      <c r="M148" s="25">
+        <v>0</v>
+      </c>
+      <c r="N148" s="25">
+        <v>1</v>
+      </c>
+      <c r="O148" s="25">
+        <v>2</v>
+      </c>
+      <c r="P148" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q148" s="25">
+        <v>3</v>
+      </c>
+      <c r="R148" s="25">
+        <v>3</v>
+      </c>
+      <c r="S148" s="25">
+        <v>1</v>
+      </c>
+      <c r="T148" s="25">
+        <v>1</v>
+      </c>
+      <c r="U148" s="25">
+        <v>2</v>
+      </c>
+      <c r="V148" s="25">
+        <v>0</v>
+      </c>
+      <c r="W148" s="25">
+        <v>1</v>
+      </c>
+      <c r="X148" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y148" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB148" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC148" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD148" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AE148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF148" s="24"/>
+      <c r="AG148" s="24"/>
+      <c r="AH148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI148" s="24"/>
+      <c r="AJ148" s="25"/>
+      <c r="AK148" s="24"/>
+      <c r="AL148" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="AM148" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="AN148" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="AO148" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ148" s="72"/>
+      <c r="AR148" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS148" s="25"/>
+      <c r="AT148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY148" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ148" s="25">
+        <v>1</v>
+      </c>
+      <c r="BA148" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="BB148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BC148" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE148" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF148" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG148" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BI148" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ148" s="25">
+        <v>1</v>
+      </c>
+      <c r="BK148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BL148" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BN148" s="25">
+        <v>2</v>
+      </c>
+      <c r="BO148" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="BP148" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ148" s="76">
+        <v>2</v>
+      </c>
+      <c r="BR148" s="77">
+        <v>1</v>
+      </c>
+      <c r="BS148" s="78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="149" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F149" s="75"/>
-      <c r="AQ149" s="73"/>
+    <row r="149" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A149" s="14">
+        <f t="shared" si="7"/>
+        <v>147</v>
+      </c>
+      <c r="B149" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C149" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D149" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E149" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F149" s="26" t="s">
+        <v>375</v>
+      </c>
+      <c r="G149" s="25">
+        <v>3</v>
+      </c>
+      <c r="H149" s="25">
+        <v>3</v>
+      </c>
+      <c r="I149" s="25">
+        <v>4</v>
+      </c>
+      <c r="J149" s="25">
+        <v>1</v>
+      </c>
+      <c r="K149" s="25">
+        <v>1</v>
+      </c>
+      <c r="L149" s="25">
+        <v>1</v>
+      </c>
+      <c r="M149" s="25">
+        <v>0</v>
+      </c>
+      <c r="N149" s="25">
+        <v>1</v>
+      </c>
+      <c r="O149" s="25">
+        <v>3</v>
+      </c>
+      <c r="P149" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q149" s="25">
+        <v>3</v>
+      </c>
+      <c r="R149" s="25">
+        <v>3</v>
+      </c>
+      <c r="S149" s="25">
+        <v>3</v>
+      </c>
+      <c r="T149" s="25">
+        <v>3</v>
+      </c>
+      <c r="U149" s="25">
+        <v>3</v>
+      </c>
+      <c r="V149" s="25">
+        <v>0</v>
+      </c>
+      <c r="W149" s="25">
+        <v>1</v>
+      </c>
+      <c r="X149" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y149" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="24"/>
+      <c r="AD149" s="24"/>
+      <c r="AE149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF149" s="24"/>
+      <c r="AG149" s="24"/>
+      <c r="AH149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI149" s="24"/>
+      <c r="AJ149" s="25"/>
+      <c r="AK149" s="24"/>
+      <c r="AL149" s="24"/>
+      <c r="AM149" s="24"/>
+      <c r="AN149" s="24"/>
+      <c r="AO149" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ149" s="72"/>
+      <c r="AR149" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS149" s="25"/>
+      <c r="AT149" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU149" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV149" s="25">
+        <v>1</v>
+      </c>
+      <c r="AW149" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX149" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY149" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ149" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA149" s="24"/>
+      <c r="BB149" s="25">
+        <v>1</v>
+      </c>
+      <c r="BC149" s="25">
+        <v>1</v>
+      </c>
+      <c r="BD149" s="25">
+        <v>1</v>
+      </c>
+      <c r="BE149" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF149" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG149" s="25">
+        <v>3</v>
+      </c>
+      <c r="BH149" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI149" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ149" s="25"/>
+      <c r="BK149" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL149" s="25">
+        <v>2</v>
+      </c>
+      <c r="BM149" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN149" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO149" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP149" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ149" s="76">
+        <v>1</v>
+      </c>
+      <c r="BR149" s="77">
+        <v>1</v>
+      </c>
+      <c r="BS149" s="78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="150" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F150" s="75"/>
-      <c r="AQ150" s="73"/>
+    <row r="150" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A150" s="14">
+        <f t="shared" si="7"/>
+        <v>148</v>
+      </c>
+      <c r="B150" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C150" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D150" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E150" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F150" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="G150" s="25">
+        <v>3</v>
+      </c>
+      <c r="H150" s="25">
+        <v>3</v>
+      </c>
+      <c r="I150" s="25">
+        <v>2</v>
+      </c>
+      <c r="J150" s="25">
+        <v>0</v>
+      </c>
+      <c r="K150" s="25">
+        <v>1</v>
+      </c>
+      <c r="L150" s="25">
+        <v>1</v>
+      </c>
+      <c r="M150" s="25">
+        <v>0</v>
+      </c>
+      <c r="N150" s="25">
+        <v>1</v>
+      </c>
+      <c r="O150" s="25">
+        <v>4</v>
+      </c>
+      <c r="P150" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q150" s="25">
+        <v>3</v>
+      </c>
+      <c r="R150" s="25">
+        <v>3</v>
+      </c>
+      <c r="S150" s="25">
+        <v>3</v>
+      </c>
+      <c r="T150" s="25">
+        <v>3</v>
+      </c>
+      <c r="U150" s="25">
+        <v>4</v>
+      </c>
+      <c r="V150" s="25">
+        <v>0</v>
+      </c>
+      <c r="W150" s="25">
+        <v>1</v>
+      </c>
+      <c r="X150" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y150" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB150" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC150" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD150" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF150" s="24"/>
+      <c r="AG150" s="24"/>
+      <c r="AH150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI150" s="24"/>
+      <c r="AJ150" s="25"/>
+      <c r="AK150" s="24"/>
+      <c r="AL150" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM150" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN150" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="AO150" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ150" s="72"/>
+      <c r="AR150" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS150" s="25"/>
+      <c r="AT150" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU150" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV150" s="25">
+        <v>1</v>
+      </c>
+      <c r="AW150" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX150" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY150" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ150" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA150" s="24"/>
+      <c r="BB150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD150" s="25">
+        <v>2</v>
+      </c>
+      <c r="BE150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG150" s="25">
+        <v>2</v>
+      </c>
+      <c r="BH150" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BJ150" s="25">
+        <v>2</v>
+      </c>
+      <c r="BK150" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL150" s="25">
+        <v>2</v>
+      </c>
+      <c r="BM150" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN150" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO150" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP150" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ150" s="76">
+        <v>1</v>
+      </c>
+      <c r="BR150" s="77">
+        <v>2</v>
+      </c>
+      <c r="BS150" s="78">
+        <v>1</v>
+      </c>
     </row>
-    <row r="151" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F151" s="75"/>
-      <c r="AQ151" s="73"/>
+    <row r="151" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A151" s="14">
+        <f t="shared" si="7"/>
+        <v>149</v>
+      </c>
+      <c r="B151" s="23"/>
+      <c r="C151" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D151" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E151" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F151" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="G151" s="25">
+        <v>2</v>
+      </c>
+      <c r="H151" s="25">
+        <v>2</v>
+      </c>
+      <c r="I151" s="25">
+        <v>2</v>
+      </c>
+      <c r="J151" s="25">
+        <v>1</v>
+      </c>
+      <c r="K151" s="25">
+        <v>1</v>
+      </c>
+      <c r="L151" s="25">
+        <v>1</v>
+      </c>
+      <c r="M151" s="25">
+        <v>0</v>
+      </c>
+      <c r="N151" s="25">
+        <v>1</v>
+      </c>
+      <c r="O151" s="25">
+        <v>3</v>
+      </c>
+      <c r="P151" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q151" s="25">
+        <v>3</v>
+      </c>
+      <c r="R151" s="25">
+        <v>3</v>
+      </c>
+      <c r="S151" s="25">
+        <v>2</v>
+      </c>
+      <c r="T151" s="25">
+        <v>3</v>
+      </c>
+      <c r="U151" s="25">
+        <v>2</v>
+      </c>
+      <c r="V151" s="25">
+        <v>0</v>
+      </c>
+      <c r="W151" s="25">
+        <v>1</v>
+      </c>
+      <c r="X151" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="25">
+        <v>0</v>
+      </c>
+      <c r="Z151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="24"/>
+      <c r="AD151" s="24"/>
+      <c r="AE151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF151" s="24"/>
+      <c r="AG151" s="24"/>
+      <c r="AH151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI151" s="24"/>
+      <c r="AJ151" s="25"/>
+      <c r="AK151" s="24"/>
+      <c r="AL151" s="24"/>
+      <c r="AM151" s="24"/>
+      <c r="AN151" s="24"/>
+      <c r="AO151" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ151" s="72"/>
+      <c r="AR151" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS151" s="25"/>
+      <c r="AT151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY151" s="25">
+        <v>3</v>
+      </c>
+      <c r="AZ151" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA151" s="24"/>
+      <c r="BB151" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC151" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD151" s="25">
+        <v>4</v>
+      </c>
+      <c r="BE151" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF151" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG151" s="25">
+        <v>2</v>
+      </c>
+      <c r="BH151" s="25">
+        <v>3</v>
+      </c>
+      <c r="BI151" s="25">
+        <v>2</v>
+      </c>
+      <c r="BJ151" s="25"/>
+      <c r="BK151" s="25">
+        <v>4</v>
+      </c>
+      <c r="BL151" s="25">
+        <v>4</v>
+      </c>
+      <c r="BM151" s="25">
+        <v>4</v>
+      </c>
+      <c r="BN151" s="25">
+        <v>5</v>
+      </c>
+      <c r="BO151" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP151" s="25">
+        <v>2</v>
+      </c>
+      <c r="BQ151" s="76">
+        <v>3</v>
+      </c>
+      <c r="BR151" s="77">
+        <v>4</v>
+      </c>
+      <c r="BS151" s="78">
+        <v>3</v>
+      </c>
     </row>
-    <row r="152" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F152" s="75"/>
-      <c r="AQ152" s="73"/>
+    <row r="152" spans="1:71" s="1" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+      <c r="A152" s="14">
+        <f t="shared" si="7"/>
+        <v>150</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C152" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="D152" s="25">
+        <v>3199</v>
+      </c>
+      <c r="E152" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F152" s="26" t="s">
+        <v>378</v>
+      </c>
+      <c r="G152" s="25">
+        <v>3</v>
+      </c>
+      <c r="H152" s="25">
+        <v>3</v>
+      </c>
+      <c r="I152" s="25">
+        <v>5</v>
+      </c>
+      <c r="J152" s="25">
+        <v>1</v>
+      </c>
+      <c r="K152" s="25">
+        <v>1</v>
+      </c>
+      <c r="L152" s="25">
+        <v>1</v>
+      </c>
+      <c r="M152" s="25">
+        <v>0</v>
+      </c>
+      <c r="N152" s="25">
+        <v>1</v>
+      </c>
+      <c r="O152" s="25">
+        <v>5</v>
+      </c>
+      <c r="P152" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q152" s="25">
+        <v>3</v>
+      </c>
+      <c r="R152" s="25">
+        <v>3</v>
+      </c>
+      <c r="S152" s="25">
+        <v>1</v>
+      </c>
+      <c r="T152" s="25">
+        <v>1</v>
+      </c>
+      <c r="U152" s="25">
+        <v>1</v>
+      </c>
+      <c r="V152" s="25">
+        <v>0</v>
+      </c>
+      <c r="W152" s="25">
+        <v>1</v>
+      </c>
+      <c r="X152" s="25">
+        <v>0</v>
+      </c>
+      <c r="Y152" s="25">
+        <v>1</v>
+      </c>
+      <c r="Z152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AA152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AB152" s="25">
+        <v>1</v>
+      </c>
+      <c r="AC152" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AD152" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AE152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF152" s="24"/>
+      <c r="AG152" s="24"/>
+      <c r="AH152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AI152" s="24"/>
+      <c r="AJ152" s="25"/>
+      <c r="AK152" s="24"/>
+      <c r="AL152" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="AM152" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="AN152" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AO152" s="52" t="s">
+        <v>163</v>
+      </c>
+      <c r="AP152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AQ152" s="72"/>
+      <c r="AR152" s="25">
+        <v>0</v>
+      </c>
+      <c r="AS152" s="25"/>
+      <c r="AT152" s="25">
+        <v>3</v>
+      </c>
+      <c r="AU152" s="25">
+        <v>3</v>
+      </c>
+      <c r="AV152" s="25">
+        <v>3</v>
+      </c>
+      <c r="AW152" s="25">
+        <v>3</v>
+      </c>
+      <c r="AX152" s="25">
+        <v>3</v>
+      </c>
+      <c r="AY152" s="25">
+        <v>5</v>
+      </c>
+      <c r="AZ152" s="25">
+        <v>0</v>
+      </c>
+      <c r="BA152" s="24"/>
+      <c r="BB152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BC152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BD152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BE152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BF152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BG152" s="25">
+        <v>5</v>
+      </c>
+      <c r="BH152" s="25">
+        <v>5</v>
+      </c>
+      <c r="BI152" s="25">
+        <v>1</v>
+      </c>
+      <c r="BJ152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BK152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BL152" s="25">
+        <v>3</v>
+      </c>
+      <c r="BM152" s="25">
+        <v>1</v>
+      </c>
+      <c r="BN152" s="25">
+        <v>1</v>
+      </c>
+      <c r="BO152" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="BP152" s="25">
+        <v>4</v>
+      </c>
+      <c r="BQ152" s="76">
+        <v>2</v>
+      </c>
+      <c r="BR152" s="77">
+        <v>3</v>
+      </c>
+      <c r="BS152" s="78">
+        <v>2</v>
+      </c>
     </row>
     <row r="153" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F153" s="75"/>
-      <c r="AQ153" s="73"/>
+      <c r="A153" s="14"/>
+      <c r="B153" s="23"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="25"/>
+      <c r="E153" s="24"/>
+      <c r="F153" s="26"/>
+      <c r="G153" s="25"/>
+      <c r="H153" s="25"/>
+      <c r="I153" s="25"/>
+      <c r="J153" s="25"/>
+      <c r="K153" s="25"/>
+      <c r="L153" s="25"/>
+      <c r="M153" s="25"/>
+      <c r="N153" s="25"/>
+      <c r="O153" s="25"/>
+      <c r="P153" s="24"/>
+      <c r="Q153" s="25"/>
+      <c r="R153" s="25"/>
+      <c r="S153" s="25"/>
+      <c r="T153" s="25"/>
+      <c r="U153" s="25"/>
+      <c r="V153" s="25"/>
+      <c r="W153" s="25"/>
+      <c r="X153" s="25"/>
+      <c r="Y153" s="25"/>
+      <c r="Z153" s="25"/>
+      <c r="AA153" s="25"/>
+      <c r="AB153" s="25"/>
+      <c r="AC153" s="24"/>
+      <c r="AD153" s="24"/>
+      <c r="AE153" s="25"/>
+      <c r="AF153" s="24"/>
+      <c r="AG153" s="24"/>
+      <c r="AH153" s="25"/>
+      <c r="AI153" s="24"/>
+      <c r="AJ153" s="25"/>
+      <c r="AK153" s="24"/>
+      <c r="AL153" s="24"/>
+      <c r="AM153" s="24"/>
+      <c r="AN153" s="24"/>
+      <c r="AO153" s="52"/>
+      <c r="AP153" s="25"/>
+      <c r="AQ153" s="72"/>
+      <c r="AR153" s="25"/>
+      <c r="AS153" s="25"/>
+      <c r="AT153" s="25"/>
+      <c r="AU153" s="25"/>
+      <c r="AV153" s="25"/>
+      <c r="AW153" s="25"/>
+      <c r="AX153" s="25"/>
+      <c r="AY153" s="25"/>
+      <c r="AZ153" s="25"/>
+      <c r="BA153" s="24"/>
+      <c r="BB153" s="25"/>
+      <c r="BC153" s="25"/>
+      <c r="BD153" s="25"/>
+      <c r="BE153" s="25"/>
+      <c r="BF153" s="25"/>
+      <c r="BG153" s="25"/>
+      <c r="BH153" s="25"/>
+      <c r="BI153" s="25"/>
+      <c r="BJ153" s="25"/>
+      <c r="BK153" s="25"/>
+      <c r="BL153" s="25"/>
+      <c r="BM153" s="25"/>
+      <c r="BN153" s="25"/>
+      <c r="BO153" s="24"/>
+      <c r="BP153" s="25"/>
+      <c r="BQ153" s="76"/>
+      <c r="BR153" s="77"/>
+      <c r="BS153" s="78"/>
     </row>
     <row r="154" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F154" s="75"/>
-      <c r="AQ154" s="73"/>
+      <c r="A154" s="14"/>
+      <c r="B154" s="23"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="25"/>
+      <c r="E154" s="24"/>
+      <c r="F154" s="26"/>
+      <c r="G154" s="25"/>
+      <c r="H154" s="25"/>
+      <c r="I154" s="25"/>
+      <c r="J154" s="25"/>
+      <c r="K154" s="25"/>
+      <c r="L154" s="25"/>
+      <c r="M154" s="25"/>
+      <c r="N154" s="25"/>
+      <c r="O154" s="25"/>
+      <c r="P154" s="24"/>
+      <c r="Q154" s="25"/>
+      <c r="R154" s="25"/>
+      <c r="S154" s="25"/>
+      <c r="T154" s="25"/>
+      <c r="U154" s="25"/>
+      <c r="V154" s="25"/>
+      <c r="W154" s="25"/>
+      <c r="X154" s="25"/>
+      <c r="Y154" s="25"/>
+      <c r="Z154" s="25"/>
+      <c r="AA154" s="25"/>
+      <c r="AB154" s="25"/>
+      <c r="AC154" s="24"/>
+      <c r="AD154" s="24"/>
+      <c r="AE154" s="25"/>
+      <c r="AF154" s="24"/>
+      <c r="AG154" s="24"/>
+      <c r="AH154" s="25"/>
+      <c r="AI154" s="24"/>
+      <c r="AJ154" s="25"/>
+      <c r="AK154" s="24"/>
+      <c r="AL154" s="24"/>
+      <c r="AM154" s="24"/>
+      <c r="AN154" s="24"/>
+      <c r="AO154" s="52"/>
+      <c r="AP154" s="25"/>
+      <c r="AQ154" s="72"/>
+      <c r="AR154" s="25"/>
+      <c r="AS154" s="25"/>
+      <c r="AT154" s="25"/>
+      <c r="AU154" s="25"/>
+      <c r="AV154" s="25"/>
+      <c r="AW154" s="25"/>
+      <c r="AX154" s="25"/>
+      <c r="AY154" s="25"/>
+      <c r="AZ154" s="25"/>
+      <c r="BA154" s="24"/>
+      <c r="BB154" s="25"/>
+      <c r="BC154" s="25"/>
+      <c r="BD154" s="25"/>
+      <c r="BE154" s="25"/>
+      <c r="BF154" s="25"/>
+      <c r="BG154" s="25"/>
+      <c r="BH154" s="25"/>
+      <c r="BI154" s="25"/>
+      <c r="BJ154" s="25"/>
+      <c r="BK154" s="25"/>
+      <c r="BL154" s="25"/>
+      <c r="BM154" s="25"/>
+      <c r="BN154" s="25"/>
+      <c r="BO154" s="24"/>
+      <c r="BP154" s="25"/>
+      <c r="BQ154" s="76"/>
+      <c r="BR154" s="77"/>
+      <c r="BS154" s="78"/>
     </row>
     <row r="155" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F155" s="75"/>
-      <c r="AQ155" s="73"/>
+      <c r="A155" s="14"/>
+      <c r="B155" s="23"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="25"/>
+      <c r="E155" s="24"/>
+      <c r="F155" s="26"/>
+      <c r="G155" s="25"/>
+      <c r="H155" s="25"/>
+      <c r="I155" s="25"/>
+      <c r="J155" s="25"/>
+      <c r="K155" s="25"/>
+      <c r="L155" s="25"/>
+      <c r="M155" s="25"/>
+      <c r="N155" s="25"/>
+      <c r="O155" s="25"/>
+      <c r="P155" s="24"/>
+      <c r="Q155" s="25"/>
+      <c r="R155" s="25"/>
+      <c r="S155" s="25"/>
+      <c r="T155" s="25"/>
+      <c r="U155" s="25"/>
+      <c r="V155" s="25"/>
+      <c r="W155" s="25"/>
+      <c r="X155" s="25"/>
+      <c r="Y155" s="25"/>
+      <c r="Z155" s="25"/>
+      <c r="AA155" s="25"/>
+      <c r="AB155" s="25"/>
+      <c r="AC155" s="24"/>
+      <c r="AD155" s="24"/>
+      <c r="AE155" s="25"/>
+      <c r="AF155" s="24"/>
+      <c r="AG155" s="24"/>
+      <c r="AH155" s="25"/>
+      <c r="AI155" s="24"/>
+      <c r="AJ155" s="25"/>
+      <c r="AK155" s="24"/>
+      <c r="AL155" s="24"/>
+      <c r="AM155" s="24"/>
+      <c r="AN155" s="24"/>
+      <c r="AO155" s="52"/>
+      <c r="AP155" s="25"/>
+      <c r="AQ155" s="72"/>
+      <c r="AR155" s="25"/>
+      <c r="AS155" s="25"/>
+      <c r="AT155" s="25"/>
+      <c r="AU155" s="25"/>
+      <c r="AV155" s="25"/>
+      <c r="AW155" s="25"/>
+      <c r="AX155" s="25"/>
+      <c r="AY155" s="25"/>
+      <c r="AZ155" s="25"/>
+      <c r="BA155" s="24"/>
+      <c r="BB155" s="25"/>
+      <c r="BC155" s="25"/>
+      <c r="BD155" s="25"/>
+      <c r="BE155" s="25"/>
+      <c r="BF155" s="25"/>
+      <c r="BG155" s="25"/>
+      <c r="BH155" s="25"/>
+      <c r="BI155" s="25"/>
+      <c r="BJ155" s="25"/>
+      <c r="BK155" s="25"/>
+      <c r="BL155" s="25"/>
+      <c r="BM155" s="25"/>
+      <c r="BN155" s="25"/>
+      <c r="BO155" s="24"/>
+      <c r="BP155" s="25"/>
+      <c r="BQ155" s="76"/>
+      <c r="BR155" s="77"/>
+      <c r="BS155" s="78"/>
     </row>
     <row r="156" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F156" s="75"/>
-      <c r="AQ156" s="73"/>
+      <c r="A156" s="14"/>
+      <c r="B156" s="23"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="25"/>
+      <c r="E156" s="24"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="25"/>
+      <c r="H156" s="25"/>
+      <c r="I156" s="25"/>
+      <c r="J156" s="25"/>
+      <c r="K156" s="25"/>
+      <c r="L156" s="25"/>
+      <c r="M156" s="25"/>
+      <c r="N156" s="25"/>
+      <c r="O156" s="25"/>
+      <c r="P156" s="24"/>
+      <c r="Q156" s="25"/>
+      <c r="R156" s="25"/>
+      <c r="S156" s="25"/>
+      <c r="T156" s="25"/>
+      <c r="U156" s="25"/>
+      <c r="V156" s="25"/>
+      <c r="W156" s="25"/>
+      <c r="X156" s="25"/>
+      <c r="Y156" s="25"/>
+      <c r="Z156" s="25"/>
+      <c r="AA156" s="25"/>
+      <c r="AB156" s="25"/>
+      <c r="AC156" s="24"/>
+      <c r="AD156" s="24"/>
+      <c r="AE156" s="25"/>
+      <c r="AF156" s="24"/>
+      <c r="AG156" s="24"/>
+      <c r="AH156" s="25"/>
+      <c r="AI156" s="24"/>
+      <c r="AJ156" s="25"/>
+      <c r="AK156" s="24"/>
+      <c r="AL156" s="24"/>
+      <c r="AM156" s="24"/>
+      <c r="AN156" s="24"/>
+      <c r="AO156" s="52"/>
+      <c r="AP156" s="25"/>
+      <c r="AQ156" s="72"/>
+      <c r="AR156" s="25"/>
+      <c r="AS156" s="25"/>
+      <c r="AT156" s="25"/>
+      <c r="AU156" s="25"/>
+      <c r="AV156" s="25"/>
+      <c r="AW156" s="25"/>
+      <c r="AX156" s="25"/>
+      <c r="AY156" s="25"/>
+      <c r="AZ156" s="25"/>
+      <c r="BA156" s="24"/>
+      <c r="BB156" s="25"/>
+      <c r="BC156" s="25"/>
+      <c r="BD156" s="25"/>
+      <c r="BE156" s="25"/>
+      <c r="BF156" s="25"/>
+      <c r="BG156" s="25"/>
+      <c r="BH156" s="25"/>
+      <c r="BI156" s="25"/>
+      <c r="BJ156" s="25"/>
+      <c r="BK156" s="25"/>
+      <c r="BL156" s="25"/>
+      <c r="BM156" s="25"/>
+      <c r="BN156" s="25"/>
+      <c r="BO156" s="24"/>
+      <c r="BP156" s="25"/>
+      <c r="BQ156" s="76"/>
+      <c r="BR156" s="77"/>
+      <c r="BS156" s="78"/>
     </row>
     <row r="157" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F157" s="75"/>
-      <c r="AQ157" s="73"/>
+      <c r="A157" s="14"/>
+      <c r="B157" s="23"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="25"/>
+      <c r="E157" s="24"/>
+      <c r="F157" s="26"/>
+      <c r="G157" s="25"/>
+      <c r="H157" s="25"/>
+      <c r="I157" s="25"/>
+      <c r="J157" s="25"/>
+      <c r="K157" s="25"/>
+      <c r="L157" s="25"/>
+      <c r="M157" s="25"/>
+      <c r="N157" s="25"/>
+      <c r="O157" s="25"/>
+      <c r="P157" s="24"/>
+      <c r="Q157" s="25"/>
+      <c r="R157" s="25"/>
+      <c r="S157" s="25"/>
+      <c r="T157" s="25"/>
+      <c r="U157" s="25"/>
+      <c r="V157" s="25"/>
+      <c r="W157" s="25"/>
+      <c r="X157" s="25"/>
+      <c r="Y157" s="25"/>
+      <c r="Z157" s="25"/>
+      <c r="AA157" s="25"/>
+      <c r="AB157" s="25"/>
+      <c r="AC157" s="24"/>
+      <c r="AD157" s="24"/>
+      <c r="AE157" s="25"/>
+      <c r="AF157" s="24"/>
+      <c r="AG157" s="24"/>
+      <c r="AH157" s="25"/>
+      <c r="AI157" s="24"/>
+      <c r="AJ157" s="25"/>
+      <c r="AK157" s="24"/>
+      <c r="AL157" s="24"/>
+      <c r="AM157" s="24"/>
+      <c r="AN157" s="24"/>
+      <c r="AO157" s="52"/>
+      <c r="AP157" s="25"/>
+      <c r="AQ157" s="72"/>
+      <c r="AR157" s="25"/>
+      <c r="AS157" s="25"/>
+      <c r="AT157" s="25"/>
+      <c r="AU157" s="25"/>
+      <c r="AV157" s="25"/>
+      <c r="AW157" s="25"/>
+      <c r="AX157" s="25"/>
+      <c r="AY157" s="25"/>
+      <c r="AZ157" s="25"/>
+      <c r="BA157" s="24"/>
+      <c r="BB157" s="25"/>
+      <c r="BC157" s="25"/>
+      <c r="BD157" s="25"/>
+      <c r="BE157" s="25"/>
+      <c r="BF157" s="25"/>
+      <c r="BG157" s="25"/>
+      <c r="BH157" s="25"/>
+      <c r="BI157" s="25"/>
+      <c r="BJ157" s="25"/>
+      <c r="BK157" s="25"/>
+      <c r="BL157" s="25"/>
+      <c r="BM157" s="25"/>
+      <c r="BN157" s="25"/>
+      <c r="BO157" s="24"/>
+      <c r="BP157" s="25"/>
+      <c r="BQ157" s="76"/>
+      <c r="BR157" s="77"/>
+      <c r="BS157" s="78"/>
     </row>
     <row r="158" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F158" s="75"/>
-      <c r="AQ158" s="73"/>
+      <c r="A158" s="14"/>
+      <c r="B158" s="23"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="25"/>
+      <c r="E158" s="24"/>
+      <c r="F158" s="26"/>
+      <c r="G158" s="25"/>
+      <c r="H158" s="25"/>
+      <c r="I158" s="25"/>
+      <c r="J158" s="25"/>
+      <c r="K158" s="25"/>
+      <c r="L158" s="25"/>
+      <c r="M158" s="25"/>
+      <c r="N158" s="25"/>
+      <c r="O158" s="25"/>
+      <c r="P158" s="24"/>
+      <c r="Q158" s="25"/>
+      <c r="R158" s="25"/>
+      <c r="S158" s="25"/>
+      <c r="T158" s="25"/>
+      <c r="U158" s="25"/>
+      <c r="V158" s="25"/>
+      <c r="W158" s="25"/>
+      <c r="X158" s="25"/>
+      <c r="Y158" s="25"/>
+      <c r="Z158" s="25"/>
+      <c r="AA158" s="25"/>
+      <c r="AB158" s="25"/>
+      <c r="AC158" s="24"/>
+      <c r="AD158" s="24"/>
+      <c r="AE158" s="25"/>
+      <c r="AF158" s="24"/>
+      <c r="AG158" s="24"/>
+      <c r="AH158" s="25"/>
+      <c r="AI158" s="24"/>
+      <c r="AJ158" s="25"/>
+      <c r="AK158" s="24"/>
+      <c r="AL158" s="24"/>
+      <c r="AM158" s="24"/>
+      <c r="AN158" s="24"/>
+      <c r="AO158" s="52"/>
+      <c r="AP158" s="25"/>
+      <c r="AQ158" s="72"/>
+      <c r="AR158" s="25"/>
+      <c r="AS158" s="25"/>
+      <c r="AT158" s="25"/>
+      <c r="AU158" s="25"/>
+      <c r="AV158" s="25"/>
+      <c r="AW158" s="25"/>
+      <c r="AX158" s="25"/>
+      <c r="AY158" s="25"/>
+      <c r="AZ158" s="25"/>
+      <c r="BA158" s="24"/>
+      <c r="BB158" s="25"/>
+      <c r="BC158" s="25"/>
+      <c r="BD158" s="25"/>
+      <c r="BE158" s="25"/>
+      <c r="BF158" s="25"/>
+      <c r="BG158" s="25"/>
+      <c r="BH158" s="25"/>
+      <c r="BI158" s="25"/>
+      <c r="BJ158" s="25"/>
+      <c r="BK158" s="25"/>
+      <c r="BL158" s="25"/>
+      <c r="BM158" s="25"/>
+      <c r="BN158" s="25"/>
+      <c r="BO158" s="24"/>
+      <c r="BP158" s="25"/>
+      <c r="BQ158" s="76"/>
+      <c r="BR158" s="77"/>
+      <c r="BS158" s="78"/>
     </row>
     <row r="159" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F159" s="75"/>
-      <c r="AQ159" s="73"/>
+      <c r="A159" s="14"/>
+      <c r="B159" s="23"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="25"/>
+      <c r="E159" s="24"/>
+      <c r="F159" s="26"/>
+      <c r="G159" s="25"/>
+      <c r="H159" s="25"/>
+      <c r="I159" s="25"/>
+      <c r="J159" s="25"/>
+      <c r="K159" s="25"/>
+      <c r="L159" s="25"/>
+      <c r="M159" s="25"/>
+      <c r="N159" s="25"/>
+      <c r="O159" s="25"/>
+      <c r="P159" s="24"/>
+      <c r="Q159" s="25"/>
+      <c r="R159" s="25"/>
+      <c r="S159" s="25"/>
+      <c r="T159" s="25"/>
+      <c r="U159" s="25"/>
+      <c r="V159" s="25"/>
+      <c r="W159" s="25"/>
+      <c r="X159" s="25"/>
+      <c r="Y159" s="25"/>
+      <c r="Z159" s="25"/>
+      <c r="AA159" s="25"/>
+      <c r="AB159" s="25"/>
+      <c r="AC159" s="24"/>
+      <c r="AD159" s="24"/>
+      <c r="AE159" s="25"/>
+      <c r="AF159" s="24"/>
+      <c r="AG159" s="24"/>
+      <c r="AH159" s="25"/>
+      <c r="AI159" s="24"/>
+      <c r="AJ159" s="25"/>
+      <c r="AK159" s="24"/>
+      <c r="AL159" s="24"/>
+      <c r="AM159" s="24"/>
+      <c r="AN159" s="24"/>
+      <c r="AO159" s="52"/>
+      <c r="AP159" s="25"/>
+      <c r="AQ159" s="72"/>
+      <c r="AR159" s="25"/>
+      <c r="AS159" s="25"/>
+      <c r="AT159" s="25"/>
+      <c r="AU159" s="25"/>
+      <c r="AV159" s="25"/>
+      <c r="AW159" s="25"/>
+      <c r="AX159" s="25"/>
+      <c r="AY159" s="25"/>
+      <c r="AZ159" s="25"/>
+      <c r="BA159" s="24"/>
+      <c r="BB159" s="25"/>
+      <c r="BC159" s="25"/>
+      <c r="BD159" s="25"/>
+      <c r="BE159" s="25"/>
+      <c r="BF159" s="25"/>
+      <c r="BG159" s="25"/>
+      <c r="BH159" s="25"/>
+      <c r="BI159" s="25"/>
+      <c r="BJ159" s="25"/>
+      <c r="BK159" s="25"/>
+      <c r="BL159" s="25"/>
+      <c r="BM159" s="25"/>
+      <c r="BN159" s="25"/>
+      <c r="BO159" s="24"/>
+      <c r="BP159" s="25"/>
+      <c r="BQ159" s="76"/>
+      <c r="BR159" s="77"/>
+      <c r="BS159" s="78"/>
     </row>
     <row r="160" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F160" s="75"/>
-      <c r="AQ160" s="73"/>
+      <c r="A160" s="14"/>
+      <c r="B160" s="23"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="25"/>
+      <c r="E160" s="24"/>
+      <c r="F160" s="26"/>
+      <c r="G160" s="25"/>
+      <c r="H160" s="25"/>
+      <c r="I160" s="25"/>
+      <c r="J160" s="25"/>
+      <c r="K160" s="25"/>
+      <c r="L160" s="25"/>
+      <c r="M160" s="25"/>
+      <c r="N160" s="25"/>
+      <c r="O160" s="25"/>
+      <c r="P160" s="24"/>
+      <c r="Q160" s="25"/>
+      <c r="R160" s="25"/>
+      <c r="S160" s="25"/>
+      <c r="T160" s="25"/>
+      <c r="U160" s="25"/>
+      <c r="V160" s="25"/>
+      <c r="W160" s="25"/>
+      <c r="X160" s="25"/>
+      <c r="Y160" s="25"/>
+      <c r="Z160" s="25"/>
+      <c r="AA160" s="25"/>
+      <c r="AB160" s="25"/>
+      <c r="AC160" s="24"/>
+      <c r="AD160" s="24"/>
+      <c r="AE160" s="25"/>
+      <c r="AF160" s="24"/>
+      <c r="AG160" s="24"/>
+      <c r="AH160" s="25"/>
+      <c r="AI160" s="24"/>
+      <c r="AJ160" s="25"/>
+      <c r="AK160" s="24"/>
+      <c r="AL160" s="24"/>
+      <c r="AM160" s="24"/>
+      <c r="AN160" s="24"/>
+      <c r="AO160" s="52"/>
+      <c r="AP160" s="25"/>
+      <c r="AQ160" s="72"/>
+      <c r="AR160" s="25"/>
+      <c r="AS160" s="25"/>
+      <c r="AT160" s="25"/>
+      <c r="AU160" s="25"/>
+      <c r="AV160" s="25"/>
+      <c r="AW160" s="25"/>
+      <c r="AX160" s="25"/>
+      <c r="AY160" s="25"/>
+      <c r="AZ160" s="25"/>
+      <c r="BA160" s="24"/>
+      <c r="BB160" s="25"/>
+      <c r="BC160" s="25"/>
+      <c r="BD160" s="25"/>
+      <c r="BE160" s="25"/>
+      <c r="BF160" s="25"/>
+      <c r="BG160" s="25"/>
+      <c r="BH160" s="25"/>
+      <c r="BI160" s="25"/>
+      <c r="BJ160" s="25"/>
+      <c r="BK160" s="25"/>
+      <c r="BL160" s="25"/>
+      <c r="BM160" s="25"/>
+      <c r="BN160" s="25"/>
+      <c r="BO160" s="24"/>
+      <c r="BP160" s="25"/>
+      <c r="BQ160" s="76"/>
+      <c r="BR160" s="77"/>
+      <c r="BS160" s="78"/>
     </row>
-    <row r="161" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F161" s="75"/>
-      <c r="AQ161" s="73"/>
+    <row r="161" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="14"/>
+      <c r="B161" s="23"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="25"/>
+      <c r="E161" s="24"/>
+      <c r="F161" s="26"/>
+      <c r="G161" s="25"/>
+      <c r="H161" s="25"/>
+      <c r="I161" s="25"/>
+      <c r="J161" s="25"/>
+      <c r="K161" s="25"/>
+      <c r="L161" s="25"/>
+      <c r="M161" s="25"/>
+      <c r="N161" s="25"/>
+      <c r="O161" s="25"/>
+      <c r="P161" s="24"/>
+      <c r="Q161" s="25"/>
+      <c r="R161" s="25"/>
+      <c r="S161" s="25"/>
+      <c r="T161" s="25"/>
+      <c r="U161" s="25"/>
+      <c r="V161" s="25"/>
+      <c r="W161" s="25"/>
+      <c r="X161" s="25"/>
+      <c r="Y161" s="25"/>
+      <c r="Z161" s="25"/>
+      <c r="AA161" s="25"/>
+      <c r="AB161" s="25"/>
+      <c r="AC161" s="24"/>
+      <c r="AD161" s="24"/>
+      <c r="AE161" s="25"/>
+      <c r="AF161" s="24"/>
+      <c r="AG161" s="24"/>
+      <c r="AH161" s="25"/>
+      <c r="AI161" s="24"/>
+      <c r="AJ161" s="25"/>
+      <c r="AK161" s="24"/>
+      <c r="AL161" s="24"/>
+      <c r="AM161" s="24"/>
+      <c r="AN161" s="24"/>
+      <c r="AO161" s="52"/>
+      <c r="AP161" s="25"/>
+      <c r="AQ161" s="72"/>
+      <c r="AR161" s="25"/>
+      <c r="AS161" s="25"/>
+      <c r="AT161" s="25"/>
+      <c r="AU161" s="25"/>
+      <c r="AV161" s="25"/>
+      <c r="AW161" s="25"/>
+      <c r="AX161" s="25"/>
+      <c r="AY161" s="25"/>
+      <c r="AZ161" s="25"/>
+      <c r="BA161" s="24"/>
+      <c r="BB161" s="25"/>
+      <c r="BC161" s="25"/>
+      <c r="BD161" s="25"/>
+      <c r="BE161" s="25"/>
+      <c r="BF161" s="25"/>
+      <c r="BG161" s="25"/>
+      <c r="BH161" s="25"/>
+      <c r="BI161" s="25"/>
+      <c r="BJ161" s="25"/>
+      <c r="BK161" s="25"/>
+      <c r="BL161" s="25"/>
+      <c r="BM161" s="25"/>
+      <c r="BN161" s="25"/>
+      <c r="BO161" s="24"/>
+      <c r="BP161" s="25"/>
+      <c r="BQ161" s="76"/>
+      <c r="BR161" s="77"/>
+      <c r="BS161" s="78"/>
     </row>
-    <row r="162" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="F162" s="75"/>
-      <c r="AQ162" s="73"/>
+    <row r="162" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="14"/>
+      <c r="B162" s="23"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="25"/>
+      <c r="E162" s="24"/>
+      <c r="F162" s="26"/>
+      <c r="G162" s="25"/>
+      <c r="H162" s="25"/>
+      <c r="I162" s="25"/>
+      <c r="J162" s="25"/>
+      <c r="K162" s="25"/>
+      <c r="L162" s="25"/>
+      <c r="M162" s="25"/>
+      <c r="N162" s="25"/>
+      <c r="O162" s="25"/>
+      <c r="P162" s="24"/>
+      <c r="Q162" s="25"/>
+      <c r="R162" s="25"/>
+      <c r="S162" s="25"/>
+      <c r="T162" s="25"/>
+      <c r="U162" s="25"/>
+      <c r="V162" s="25"/>
+      <c r="W162" s="25"/>
+      <c r="X162" s="25"/>
+      <c r="Y162" s="25"/>
+      <c r="Z162" s="25"/>
+      <c r="AA162" s="25"/>
+      <c r="AB162" s="25"/>
+      <c r="AC162" s="24"/>
+      <c r="AD162" s="24"/>
+      <c r="AE162" s="25"/>
+      <c r="AF162" s="24"/>
+      <c r="AG162" s="24"/>
+      <c r="AH162" s="25"/>
+      <c r="AI162" s="24"/>
+      <c r="AJ162" s="25"/>
+      <c r="AK162" s="24"/>
+      <c r="AL162" s="24"/>
+      <c r="AM162" s="24"/>
+      <c r="AN162" s="24"/>
+      <c r="AO162" s="52"/>
+      <c r="AP162" s="25"/>
+      <c r="AQ162" s="72"/>
+      <c r="AR162" s="25"/>
+      <c r="AS162" s="25"/>
+      <c r="AT162" s="25"/>
+      <c r="AU162" s="25"/>
+      <c r="AV162" s="25"/>
+      <c r="AW162" s="25"/>
+      <c r="AX162" s="25"/>
+      <c r="AY162" s="25"/>
+      <c r="AZ162" s="25"/>
+      <c r="BA162" s="24"/>
+      <c r="BB162" s="25"/>
+      <c r="BC162" s="25"/>
+      <c r="BD162" s="25"/>
+      <c r="BE162" s="25"/>
+      <c r="BF162" s="25"/>
+      <c r="BG162" s="25"/>
+      <c r="BH162" s="25"/>
+      <c r="BI162" s="25"/>
+      <c r="BJ162" s="25"/>
+      <c r="BK162" s="25"/>
+      <c r="BL162" s="25"/>
+      <c r="BM162" s="25"/>
+      <c r="BN162" s="25"/>
+      <c r="BO162" s="24"/>
+      <c r="BP162" s="25"/>
+      <c r="BQ162" s="76"/>
+      <c r="BR162" s="77"/>
+      <c r="BS162" s="78"/>
     </row>
-    <row r="163" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F163" s="75"/>
       <c r="AQ163" s="73"/>
     </row>
-    <row r="164" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F164" s="75"/>
       <c r="AQ164" s="73"/>
     </row>
-    <row r="165" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="165" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F165" s="75"/>
       <c r="AQ165" s="73"/>
     </row>
-    <row r="166" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="166" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F166" s="75"/>
       <c r="AQ166" s="73"/>
     </row>
-    <row r="167" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="167" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F167" s="75"/>
       <c r="AQ167" s="73"/>
     </row>
-    <row r="168" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="168" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F168" s="75"/>
       <c r="AQ168" s="73"/>
     </row>
-    <row r="169" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="169" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F169" s="75"/>
       <c r="AQ169" s="73"/>
     </row>
-    <row r="170" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="170" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F170" s="75"/>
       <c r="AQ170" s="73"/>
     </row>
-    <row r="171" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="171" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F171" s="75"/>
       <c r="AQ171" s="73"/>
     </row>
-    <row r="172" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="172" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F172" s="75"/>
       <c r="AQ172" s="73"/>
     </row>
-    <row r="173" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="173" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F173" s="75"/>
       <c r="AQ173" s="73"/>
     </row>
-    <row r="174" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="174" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F174" s="75"/>
       <c r="AQ174" s="73"/>
     </row>
-    <row r="175" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="175" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F175" s="75"/>
       <c r="AQ175" s="73"/>
     </row>
-    <row r="176" spans="6:43" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="176" spans="1:71" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="F176" s="75"/>
       <c r="AQ176" s="73"/>
     </row>
@@ -32572,28 +35015,28 @@
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <dataValidations count="10">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W94:X94 AA78:AA82 V78:Z80 Y81:Z82 W90:X91 V3:AA77 V81:X89 Y83:AB94 V92:X93 W95:AA145 V95:V134 V136:V145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W94:X94 AA78:AA82 V78:Z80 Y81:Z82 W90:X91 V3:AA77 V81:X89 Y83:AB94 V92:X93 V136:V162 V95:V134 W95:AA162">
       <formula1>"0,1,/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB82 M1 N3:N145 J3:K145 M3:M1048576 L1:L1048576 AZ136:AZ145 AZ3:AZ134">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB3:AB82 M1 J3:K162 AZ136:AZ162 AZ3:AZ134 N3:N162 M3:M1048576 L1:L1048576">
       <formula1>"0,1"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:U72 R75:U79 AD3:AD145 BA136:BA145 BA3:BA134">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R3:U72 R75:U79 BA136:BA162 BA3:BA134 AD3:AD162">
       <formula1>"1,2,3,4,5,/"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="BO3:BO162">
       <formula1>"好评,中评,差评"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:I145 O3:O145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3:O162 G3:I162">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E162">
       <formula1>"android客户端,iphone客户端,ipad客户端,微信购物,网页购物"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC2 AC146:AC1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC1:AC2 AC163:AC1048576">
       <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC145">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC3:AC162">
       <formula1>"质量问题, 售前咨询, 物流配送, 咨询赠品, 预约安装, 效果一般, 安装问题, 价格波动,/"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
